--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -551,9 +551,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -588,19 +588,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,9 +603,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,22 +632,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,55 +703,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,7 +801,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,43 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,25 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,37 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,12 +982,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,11 +1010,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,36 +1036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,6 +1064,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1115,10 +1115,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,133 +1127,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1711,11 +1711,11 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="$A33:$XFD34"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="7">
         <v>0</v>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26340" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0">
+    <comment ref="K28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>#class</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>totaltime</t>
+  </si>
+  <si>
+    <t>数据重置时间(服务器使用)</t>
+  </si>
+  <si>
+    <t>resettime</t>
   </si>
   <si>
     <t>服务器记录id(服务器使用)</t>
@@ -551,9 +557,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -588,9 +594,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,31 +616,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,9 +662,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +709,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,31 +731,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,42 +742,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,7 +807,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,13 +855,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +897,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,145 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,21 +1017,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1040,25 +1031,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1079,11 +1066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,11 +1092,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,10 +1121,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,133 +1133,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,14 +1714,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2773,16 +2779,7 @@
         <v>94</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M17" s="6">
         <v>1</v>
@@ -2800,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -2832,25 +2829,31 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
       <c r="A18" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>97</v>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="M18" s="6">
         <v>1</v>
       </c>
       <c r="N18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6">
         <v>0</v>
@@ -2865,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="6">
         <v>0</v>
@@ -2965,84 +2968,87 @@
         <v>102</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A21" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>1</v>
-      </c>
-      <c r="S20" s="6">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:27">
-      <c r="A21" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="M21" s="6">
         <v>1</v>
       </c>
       <c r="N21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6">
         <v>0</v>
@@ -3084,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
+    <row r="22" s="6" customFormat="1" spans="1:27">
       <c r="A22" s="6" t="s">
         <v>107</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
@@ -3175,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="6">
         <v>0</v>
@@ -3320,80 +3326,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7">
-        <v>1</v>
-      </c>
-      <c r="X26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="7">
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -3443,16 +3446,19 @@
     </row>
     <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3505,7 +3511,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>122</v>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
         <v>1</v>
@@ -3564,13 +3570,13 @@
         <v>123</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3620,17 +3626,17 @@
     </row>
     <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="7">
         <v>0</v>
@@ -3682,237 +3688,296 @@
         <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>1</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
+      <c r="W32" s="7">
+        <v>1</v>
+      </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>1</v>
-      </c>
-      <c r="S32" s="7">
-        <v>1</v>
-      </c>
-      <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>1</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
-        <v>1</v>
-      </c>
-      <c r="X32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M33" s="8">
-        <v>1</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
-      <c r="R33" s="8">
-        <v>1</v>
-      </c>
-      <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7">
+        <v>1</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7">
+        <v>1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A34" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>1</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="8">
-        <v>1</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>1</v>
-      </c>
-      <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8">
-        <v>0</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="8">
-        <v>0</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="8">
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A35" s="9" t="s">
+    <row r="36" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="9">
-        <v>1</v>
-      </c>
-      <c r="N35" s="9">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9">
-        <v>1</v>
-      </c>
-      <c r="S35" s="9">
-        <v>1</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0</v>
-      </c>
-      <c r="V35" s="9">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9">
-        <v>0</v>
-      </c>
-      <c r="X35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="9">
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9">
+        <v>1</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>#class</t>
   </si>
@@ -344,22 +344,16 @@
     <t>onlinetime</t>
   </si>
   <si>
-    <t>上次下线时间(服务器使用)</t>
-  </si>
-  <si>
-    <t>offlinetime</t>
+    <t>数据重置时间(服务器使用)</t>
+  </si>
+  <si>
+    <t>resettime</t>
   </si>
   <si>
     <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
   </si>
   <si>
     <t>totaltime</t>
-  </si>
-  <si>
-    <t>数据重置时间(服务器使用)</t>
-  </si>
-  <si>
-    <t>resettime</t>
   </si>
   <si>
     <t>服务器记录id(服务器使用)</t>
@@ -594,8 +588,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,7 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,8 +617,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -638,9 +670,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,23 +679,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +693,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -686,22 +716,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -709,37 +733,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +801,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +867,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,19 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +909,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,13 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,13 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,73 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1010,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1033,15 +1036,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1051,17 +1045,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,24 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1113,6 +1092,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1115,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,133 +1127,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,14 +1708,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2779,7 +2773,16 @@
         <v>94</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="M17" s="6">
         <v>1</v>
@@ -2797,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="6">
         <v>0</v>
@@ -2829,31 +2832,25 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
       <c r="A18" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="M18" s="6">
         <v>1</v>
       </c>
       <c r="N18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6">
         <v>0</v>
@@ -2868,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="6">
         <v>0</v>
@@ -2968,10 +2965,19 @@
         <v>102</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M20" s="6">
         <v>1</v>
@@ -3019,36 +3025,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="21" s="6" customFormat="1" spans="1:27">
       <c r="A21" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M21" s="6">
         <v>1</v>
       </c>
       <c r="N21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6">
         <v>0</v>
@@ -3090,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:27">
+    <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A22" s="6" t="s">
         <v>107</v>
       </c>
@@ -3160,7 +3154,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
@@ -3181,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="6">
         <v>0</v>
@@ -3326,77 +3320,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>1</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>1</v>
+      </c>
+      <c r="S26" s="7">
+        <v>1</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
+      <c r="U26" s="7">
+        <v>1</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26" s="7">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A27" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -3446,19 +3443,16 @@
     </row>
     <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A28" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3511,7 +3505,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>122</v>
@@ -3535,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7">
         <v>1</v>
@@ -3570,13 +3564,13 @@
         <v>123</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3626,17 +3620,17 @@
     </row>
     <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="7">
         <v>0</v>
@@ -3688,13 +3682,13 @@
         <v>128</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3712,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="7">
         <v>0</v>
@@ -3742,242 +3736,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A33" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="7">
-        <v>1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>1</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <v>1</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7">
-        <v>1</v>
-      </c>
-      <c r="X33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="7">
+      <c r="M33" s="8">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>1</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="B35" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M34" s="8">
-        <v>1</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>1</v>
-      </c>
-      <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8">
-        <v>0</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="8">
-        <v>0</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A35" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>0</v>
-      </c>
-      <c r="R35" s="8">
-        <v>1</v>
-      </c>
-      <c r="S35" s="8">
-        <v>0</v>
-      </c>
-      <c r="T35" s="8">
-        <v>0</v>
-      </c>
-      <c r="U35" s="8">
-        <v>0</v>
-      </c>
-      <c r="V35" s="8">
-        <v>0</v>
-      </c>
-      <c r="W35" s="8">
-        <v>0</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A36" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M36" s="9">
-        <v>1</v>
-      </c>
-      <c r="N36" s="9">
-        <v>1</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>1</v>
-      </c>
-      <c r="S36" s="9">
-        <v>1</v>
-      </c>
-      <c r="T36" s="9">
-        <v>0</v>
-      </c>
-      <c r="U36" s="9">
-        <v>0</v>
-      </c>
-      <c r="V36" s="9">
-        <v>0</v>
-      </c>
-      <c r="W36" s="9">
-        <v>0</v>
-      </c>
-      <c r="X36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="9">
+      <c r="M35" s="9">
+        <v>1</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -1715,7 +1715,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0">
+    <comment ref="K29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
   <si>
     <t>#class</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>roomserverid</t>
+  </si>
+  <si>
+    <t>签到天数( 7天 )</t>
+  </si>
+  <si>
+    <t>sevenday</t>
+  </si>
+  <si>
+    <t>签到奖励( 7天 )</t>
+  </si>
+  <si>
+    <t>sevenreward</t>
   </si>
   <si>
     <r>
@@ -588,14 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -604,7 +608,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,26 +650,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,15 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,21 +690,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -717,6 +713,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -725,15 +744,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,7 +813,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,49 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,79 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +915,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,8 +1025,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +1061,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1048,8 +1090,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,22 +1100,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,21 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1115,10 +1127,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1127,133 +1139,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,14 +1720,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3320,139 +3332,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>1</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26" s="7">
-        <v>1</v>
-      </c>
-      <c r="X26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="7">
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="M27" s="7">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1</v>
-      </c>
-      <c r="T27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <v>1</v>
-      </c>
-      <c r="V27" s="7">
-        <v>1</v>
-      </c>
-      <c r="W27" s="7">
-        <v>1</v>
-      </c>
-      <c r="X27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="7">
+      <c r="D27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>1</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="C28" s="7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3502,17 +3511,20 @@
     </row>
     <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
         <v>1</v>
@@ -3564,13 +3576,13 @@
         <v>123</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3588,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="7">
         <v>1</v>
@@ -3620,16 +3632,16 @@
     </row>
     <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3650,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="7">
         <v>0</v>
@@ -3679,240 +3691,358 @@
     </row>
     <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>1</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>1</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
+      <c r="W32" s="7">
+        <v>1</v>
+      </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7">
+        <v>1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>1</v>
-      </c>
-      <c r="S32" s="7">
-        <v>1</v>
-      </c>
-      <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>1</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
-        <v>1</v>
-      </c>
-      <c r="X32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="7">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
+        <v>1</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>1</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34" s="7">
+        <v>1</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A33" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="35" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="8">
-        <v>1</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>0</v>
-      </c>
-      <c r="R33" s="8">
-        <v>1</v>
-      </c>
-      <c r="S33" s="8">
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="8">
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A34" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="36" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M34" s="8">
-        <v>1</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>1</v>
-      </c>
-      <c r="S34" s="8">
-        <v>0</v>
-      </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="8">
-        <v>0</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="8">
-        <v>0</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="8">
+      <c r="M36" s="8">
+        <v>1</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A35" s="9" t="s">
+    <row r="37" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M35" s="9">
-        <v>1</v>
-      </c>
-      <c r="N35" s="9">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9">
-        <v>1</v>
-      </c>
-      <c r="S35" s="9">
-        <v>1</v>
-      </c>
-      <c r="T35" s="9">
-        <v>0</v>
-      </c>
-      <c r="U35" s="9">
-        <v>0</v>
-      </c>
-      <c r="V35" s="9">
-        <v>0</v>
-      </c>
-      <c r="W35" s="9">
-        <v>0</v>
-      </c>
-      <c r="X35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="9">
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>1</v>
+      </c>
+      <c r="S37" s="9">
+        <v>1</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -48,7 +48,51 @@
         </r>
       </text>
     </comment>
-    <comment ref="K29" authorId="0">
+    <comment ref="K28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+背包最大数量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否使用固定格式索引</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
   <si>
     <t>#class</t>
   </si>
@@ -432,6 +476,21 @@
   </si>
   <si>
     <t>sevenreward</t>
+  </si>
+  <si>
+    <t>道具背包</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>道具</t>
   </si>
   <si>
     <r>
@@ -555,6 +614,42 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>配置表id</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>有效时间, 0=永久道具</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>道具有效时间(单位:秒)</t>
+  </si>
+  <si>
+    <t>道具已经使用的次数</t>
+  </si>
+  <si>
+    <t>usecount</t>
+  </si>
+  <si>
+    <t>道具在背包中的位置索引</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -601,56 +696,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -665,24 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,14 +719,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -712,11 +749,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,7 +782,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,11 +801,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,7 +908,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,37 +1010,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,127 +1082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,23 +1120,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,6 +1165,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1090,32 +1194,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,10 +1222,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,137 +1234,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1298,6 +1393,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1720,42 +1818,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="10" customWidth="1"/>
-    <col min="2" max="3" width="14.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="10" customWidth="1"/>
-    <col min="9" max="10" width="19.375" style="10" customWidth="1"/>
-    <col min="11" max="12" width="18.25" style="10" customWidth="1"/>
-    <col min="13" max="15" width="19.25" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="11" style="10" customWidth="1"/>
-    <col min="19" max="19" width="12.875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="15" style="10" customWidth="1"/>
-    <col min="21" max="21" width="11" style="10" customWidth="1"/>
-    <col min="22" max="25" width="9" style="10" customWidth="1"/>
-    <col min="26" max="26" width="11" style="10" customWidth="1"/>
-    <col min="27" max="27" width="9" style="10" customWidth="1"/>
-    <col min="28" max="28" width="8.375" style="10" customWidth="1"/>
-    <col min="29" max="29" width="16.25" style="10" customWidth="1"/>
-    <col min="30" max="30" width="19.625" style="10" customWidth="1"/>
-    <col min="31" max="31" width="24.875" style="10" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="48.5" style="11" customWidth="1"/>
+    <col min="2" max="3" width="14.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="11" customWidth="1"/>
+    <col min="9" max="10" width="19.375" style="11" customWidth="1"/>
+    <col min="11" max="12" width="18.25" style="11" customWidth="1"/>
+    <col min="13" max="15" width="19.25" style="11" customWidth="1"/>
+    <col min="16" max="16" width="14.875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11" style="11" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="15" style="11" customWidth="1"/>
+    <col min="21" max="21" width="11" style="11" customWidth="1"/>
+    <col min="22" max="25" width="9" style="11" customWidth="1"/>
+    <col min="26" max="26" width="11" style="11" customWidth="1"/>
+    <col min="27" max="27" width="9" style="11" customWidth="1"/>
+    <col min="28" max="28" width="8.375" style="11" customWidth="1"/>
+    <col min="29" max="29" width="16.25" style="11" customWidth="1"/>
+    <col min="30" max="30" width="19.625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="24.875" style="11" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -3450,80 +3548,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <v>1</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1</v>
-      </c>
-      <c r="T28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="7">
-        <v>1</v>
-      </c>
-      <c r="V28" s="7">
-        <v>1</v>
-      </c>
-      <c r="W28" s="7">
-        <v>1</v>
-      </c>
-      <c r="X28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="7">
+      <c r="H28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="6">
+        <v>100</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A29" s="7" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -3573,16 +3686,19 @@
     </row>
     <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3632,13 +3748,13 @@
     </row>
     <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A31" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>82</v>
@@ -3659,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="7">
         <v>1</v>
@@ -3691,16 +3807,16 @@
     </row>
     <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A32" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3750,16 +3866,16 @@
     </row>
     <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A33" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3780,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="7">
         <v>0</v>
@@ -3809,240 +3925,662 @@
     </row>
     <row r="34" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A34" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>1</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34" s="7">
+        <v>1</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M34" s="7">
-        <v>1</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>1</v>
-      </c>
-      <c r="S34" s="7">
-        <v>1</v>
-      </c>
-      <c r="T34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <v>1</v>
-      </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34" s="7">
-        <v>1</v>
-      </c>
-      <c r="X34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>0</v>
-      </c>
-      <c r="R35" s="8">
-        <v>1</v>
-      </c>
-      <c r="S35" s="8">
-        <v>0</v>
-      </c>
-      <c r="T35" s="8">
-        <v>0</v>
-      </c>
-      <c r="U35" s="8">
-        <v>0</v>
-      </c>
-      <c r="V35" s="8">
-        <v>0</v>
-      </c>
-      <c r="W35" s="8">
-        <v>0</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="8">
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>1</v>
+      </c>
+      <c r="V35" s="7">
+        <v>1</v>
+      </c>
+      <c r="W35" s="7">
+        <v>1</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A36" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" s="8">
+        <v>1</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M36" s="8">
-        <v>1</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>1</v>
-      </c>
-      <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>0</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
+      <c r="M37" s="8">
+        <v>1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>1</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A37" s="9" t="s">
+    <row r="38" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M37" s="9">
-        <v>1</v>
-      </c>
-      <c r="N37" s="9">
-        <v>1</v>
-      </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9">
-        <v>1</v>
-      </c>
-      <c r="S37" s="9">
-        <v>1</v>
-      </c>
-      <c r="T37" s="9">
-        <v>0</v>
-      </c>
-      <c r="U37" s="9">
-        <v>0</v>
-      </c>
-      <c r="V37" s="9">
-        <v>0</v>
-      </c>
-      <c r="W37" s="9">
-        <v>0</v>
-      </c>
-      <c r="X37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="9">
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>1</v>
+      </c>
+      <c r="S38" s="9">
+        <v>1</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>1</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A40" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" s="10">
+        <v>1</v>
+      </c>
+      <c r="N40" s="10">
+        <v>1</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="10">
+        <v>1</v>
+      </c>
+      <c r="S40" s="10">
+        <v>1</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A41" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M41" s="10">
+        <v>1</v>
+      </c>
+      <c r="N41" s="10">
+        <v>1</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="10">
+        <v>1</v>
+      </c>
+      <c r="S41" s="10">
+        <v>1</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A42" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1</v>
+      </c>
+      <c r="S42" s="10">
+        <v>1</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A43" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="10">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <v>1</v>
+      </c>
+      <c r="S43" s="10">
+        <v>1</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A44" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <v>1</v>
+      </c>
+      <c r="S44" s="10">
+        <v>1</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10">
+        <v>0</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -657,10 +657,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -696,14 +696,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -711,7 +718,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,78 +784,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,8 +807,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,20 +843,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,7 +914,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +968,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,49 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1046,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,73 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,15 +1121,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1150,6 +1141,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,6 +1176,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,30 +1214,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,10 +1222,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,133 +1234,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1821,11 +1821,11 @@
   <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3995,6 +3995,9 @@
       <c r="D35" s="7" t="s">
         <v>82</v>
       </c>
+      <c r="K35" s="7">
+        <v>99999</v>
+      </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26340" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0">
+    <comment ref="L32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K30" authorId="0">
+    <comment ref="K36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
   <si>
     <t>#class</t>
   </si>
@@ -418,6 +418,12 @@
     <t>money</t>
   </si>
   <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -442,6 +448,12 @@
     <t>heroid</t>
   </si>
   <si>
+    <t>英雄数量( 服务器使用 )</t>
+  </si>
+  <si>
+    <t>herocount</t>
+  </si>
+  <si>
     <t>正在匹配的id</t>
   </si>
   <si>
@@ -478,6 +490,18 @@
     <t>sevenreward</t>
   </si>
   <si>
+    <t>签到时间(服务器使用)</t>
+  </si>
+  <si>
+    <t>signintime</t>
+  </si>
+  <si>
+    <t>连续签到次数</t>
+  </si>
+  <si>
+    <t>continuoussignin</t>
+  </si>
+  <si>
     <t>道具背包</t>
   </si>
   <si>
@@ -491,6 +515,18 @@
   </si>
   <si>
     <t>道具</t>
+  </si>
+  <si>
+    <t>战斗结束的名次( 服务器使用 )</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>战斗结束的杀人数( 服务器使用 )</t>
+  </si>
+  <si>
+    <t>kill</t>
   </si>
   <si>
     <r>
@@ -658,9 +694,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -696,14 +732,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,35 +762,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,9 +776,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +803,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,38 +838,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -840,7 +876,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,7 +950,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +1016,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +1040,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,19 +1094,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,121 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,9 +1155,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,23 +1206,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,8 +1230,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,17 +1250,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,10 +1258,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,16 +1270,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,16 +1288,16 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,97 +1306,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1818,20 +1854,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.5" style="11" customWidth="1"/>
-    <col min="2" max="3" width="14.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="11" customWidth="1"/>
@@ -3075,84 +3112,87 @@
         <v>102</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A21" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>1</v>
-      </c>
-      <c r="S20" s="6">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:27">
-      <c r="A21" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="M21" s="6">
         <v>1</v>
       </c>
       <c r="N21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="6">
         <v>0</v>
@@ -3194,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
+    <row r="22" s="6" customFormat="1" spans="1:27">
       <c r="A22" s="6" t="s">
         <v>107</v>
       </c>
@@ -3264,7 +3304,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M23" s="6">
         <v>1</v>
@@ -3282,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="6">
         <v>0</v>
@@ -3323,7 +3363,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -3344,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="6">
         <v>0</v>
@@ -3430,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
@@ -3441,7 +3481,7 @@
         <v>116</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
@@ -3462,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -3489,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A27" s="6" t="s">
         <v>117</v>
       </c>
@@ -3500,7 +3540,7 @@
         <v>118</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -3521,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="6">
         <v>0</v>
@@ -3559,1031 +3599,1385 @@
         <v>120</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <v>0</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>1</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>0</v>
+      </c>
+      <c r="X30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <v>0</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="E32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="H32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="6">
         <v>100</v>
       </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>1</v>
-      </c>
-      <c r="S28" s="6">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0</v>
-      </c>
-      <c r="V28" s="6">
-        <v>0</v>
-      </c>
-      <c r="W28" s="6">
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="6">
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>1</v>
+      </c>
+      <c r="S32" s="6">
+        <v>1</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>0</v>
+      </c>
+      <c r="X32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
-      </c>
-      <c r="T29" s="7">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1</v>
-      </c>
-      <c r="V29" s="7">
-        <v>1</v>
-      </c>
-      <c r="W29" s="7">
-        <v>1</v>
-      </c>
-      <c r="X29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="7">
+    <row r="33" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>1</v>
-      </c>
-      <c r="S30" s="7">
-        <v>1</v>
-      </c>
-      <c r="T30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <v>1</v>
-      </c>
-      <c r="V30" s="7">
-        <v>1</v>
-      </c>
-      <c r="W30" s="7">
-        <v>1</v>
-      </c>
-      <c r="X30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="7" t="s">
+    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>1</v>
-      </c>
-      <c r="S31" s="7">
-        <v>1</v>
-      </c>
-      <c r="T31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <v>1</v>
-      </c>
-      <c r="V31" s="7">
-        <v>1</v>
-      </c>
-      <c r="W31" s="7">
-        <v>1</v>
-      </c>
-      <c r="X31" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <v>1</v>
-      </c>
-      <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>1</v>
-      </c>
-      <c r="V32" s="7">
-        <v>1</v>
-      </c>
-      <c r="W32" s="7">
-        <v>1</v>
-      </c>
-      <c r="X32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <v>1</v>
-      </c>
-      <c r="V33" s="7">
-        <v>1</v>
-      </c>
-      <c r="W33" s="7">
-        <v>1</v>
-      </c>
-      <c r="X33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A34" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M34" s="7">
-        <v>1</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <v>1</v>
-      </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34" s="7">
-        <v>1</v>
-      </c>
-      <c r="X34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="7">
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
+        <v>1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>1</v>
+      </c>
+      <c r="V35" s="7">
+        <v>1</v>
+      </c>
+      <c r="W35" s="7">
+        <v>1</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
+        <v>1</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <v>1</v>
+      </c>
+      <c r="V36" s="7">
+        <v>1</v>
+      </c>
+      <c r="W36" s="7">
+        <v>1</v>
+      </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="7">
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+      <c r="S37" s="7">
+        <v>1</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0</v>
+      </c>
+      <c r="U37" s="7">
+        <v>1</v>
+      </c>
+      <c r="V37" s="7">
+        <v>1</v>
+      </c>
+      <c r="W37" s="7">
+        <v>1</v>
+      </c>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7">
+        <v>1</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <v>1</v>
+      </c>
+      <c r="V38" s="7">
+        <v>1</v>
+      </c>
+      <c r="W38" s="7">
+        <v>1</v>
+      </c>
+      <c r="X38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>1</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>1</v>
+      </c>
+      <c r="V39" s="7">
+        <v>1</v>
+      </c>
+      <c r="W39" s="7">
+        <v>1</v>
+      </c>
+      <c r="X39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>1</v>
+      </c>
+      <c r="V40" s="7">
+        <v>1</v>
+      </c>
+      <c r="W40" s="7">
+        <v>1</v>
+      </c>
+      <c r="X40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="7">
         <v>99999</v>
       </c>
-      <c r="M35" s="7">
-        <v>1</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1</v>
-      </c>
-      <c r="S35" s="7">
-        <v>1</v>
-      </c>
-      <c r="T35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <v>1</v>
-      </c>
-      <c r="V35" s="7">
-        <v>1</v>
-      </c>
-      <c r="W35" s="7">
-        <v>1</v>
-      </c>
-      <c r="X35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="7">
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>1</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>1</v>
+      </c>
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="42" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A42" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M36" s="8">
-        <v>1</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>1</v>
-      </c>
-      <c r="S36" s="8">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>0</v>
-      </c>
-      <c r="U36" s="8">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="8">
-        <v>0</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="8">
+      <c r="M42" s="8">
+        <v>1</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>1</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M37" s="8">
-        <v>1</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="8">
-        <v>0</v>
-      </c>
-      <c r="R37" s="8">
-        <v>1</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0</v>
-      </c>
-      <c r="T37" s="8">
-        <v>0</v>
-      </c>
-      <c r="U37" s="8">
-        <v>0</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0</v>
-      </c>
-      <c r="W37" s="8">
-        <v>0</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8">
+      <c r="M43" s="8">
+        <v>1</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>1</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A38" s="9" t="s">
+    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="9">
-        <v>1</v>
-      </c>
-      <c r="N38" s="9">
-        <v>1</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9">
-        <v>1</v>
-      </c>
-      <c r="S38" s="9">
-        <v>1</v>
-      </c>
-      <c r="T38" s="9">
-        <v>0</v>
-      </c>
-      <c r="U38" s="9">
-        <v>0</v>
-      </c>
-      <c r="V38" s="9">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="9">
+      <c r="M44" s="9">
+        <v>1</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>1</v>
+      </c>
+      <c r="S44" s="9">
+        <v>1</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="9">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="10" t="s">
+    <row r="45" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M39" s="10">
-        <v>1</v>
-      </c>
-      <c r="N39" s="10">
-        <v>0</v>
-      </c>
-      <c r="O39" s="10">
-        <v>0</v>
-      </c>
-      <c r="P39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>0</v>
-      </c>
-      <c r="R39" s="10">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10">
-        <v>1</v>
-      </c>
-      <c r="T39" s="10">
-        <v>0</v>
-      </c>
-      <c r="U39" s="10">
-        <v>0</v>
-      </c>
-      <c r="V39" s="10">
-        <v>0</v>
-      </c>
-      <c r="W39" s="10">
-        <v>0</v>
-      </c>
-      <c r="X39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="10">
+      <c r="M45" s="10">
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <v>1</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A40" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="10" t="s">
+    <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A46" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M40" s="10">
-        <v>1</v>
-      </c>
-      <c r="N40" s="10">
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>0</v>
-      </c>
-      <c r="R40" s="10">
-        <v>1</v>
-      </c>
-      <c r="S40" s="10">
-        <v>1</v>
-      </c>
-      <c r="T40" s="10">
-        <v>0</v>
-      </c>
-      <c r="U40" s="10">
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
-        <v>0</v>
-      </c>
-      <c r="W40" s="10">
-        <v>0</v>
-      </c>
-      <c r="X40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="10">
+      <c r="H46" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" s="10">
+        <v>1</v>
+      </c>
+      <c r="N46" s="10">
+        <v>1</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0</v>
+      </c>
+      <c r="R46" s="10">
+        <v>1</v>
+      </c>
+      <c r="S46" s="10">
+        <v>1</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="10" t="s">
+    <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A47" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M41" s="10">
-        <v>1</v>
-      </c>
-      <c r="N41" s="10">
-        <v>1</v>
-      </c>
-      <c r="O41" s="10">
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>0</v>
-      </c>
-      <c r="R41" s="10">
-        <v>1</v>
-      </c>
-      <c r="S41" s="10">
-        <v>1</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0</v>
-      </c>
-      <c r="U41" s="10">
-        <v>0</v>
-      </c>
-      <c r="V41" s="10">
-        <v>0</v>
-      </c>
-      <c r="W41" s="10">
-        <v>0</v>
-      </c>
-      <c r="X41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="10">
+      <c r="H47" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M47" s="10">
+        <v>1</v>
+      </c>
+      <c r="N47" s="10">
+        <v>1</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0</v>
+      </c>
+      <c r="R47" s="10">
+        <v>1</v>
+      </c>
+      <c r="S47" s="10">
+        <v>1</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A42" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="10" t="s">
+    <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="M42" s="10">
-        <v>1</v>
-      </c>
-      <c r="N42" s="10">
-        <v>0</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0</v>
-      </c>
-      <c r="P42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>0</v>
-      </c>
-      <c r="R42" s="10">
-        <v>1</v>
-      </c>
-      <c r="S42" s="10">
-        <v>1</v>
-      </c>
-      <c r="T42" s="10">
-        <v>0</v>
-      </c>
-      <c r="U42" s="10">
-        <v>0</v>
-      </c>
-      <c r="V42" s="10">
-        <v>0</v>
-      </c>
-      <c r="W42" s="10">
-        <v>0</v>
-      </c>
-      <c r="X42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="10">
+      <c r="H48" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M48" s="10">
+        <v>1</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10">
+        <v>1</v>
+      </c>
+      <c r="S48" s="10">
+        <v>1</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A43" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="10" t="s">
+    <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A49" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="10">
-        <v>1</v>
-      </c>
-      <c r="N43" s="10">
-        <v>0</v>
-      </c>
-      <c r="O43" s="10">
-        <v>0</v>
-      </c>
-      <c r="P43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>0</v>
-      </c>
-      <c r="R43" s="10">
-        <v>1</v>
-      </c>
-      <c r="S43" s="10">
-        <v>1</v>
-      </c>
-      <c r="T43" s="10">
-        <v>0</v>
-      </c>
-      <c r="U43" s="10">
-        <v>0</v>
-      </c>
-      <c r="V43" s="10">
-        <v>0</v>
-      </c>
-      <c r="W43" s="10">
-        <v>0</v>
-      </c>
-      <c r="X43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="10">
+      <c r="M49" s="10">
+        <v>1</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <v>1</v>
+      </c>
+      <c r="S49" s="10">
+        <v>1</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="10">
+        <v>0</v>
+      </c>
+      <c r="X49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A44" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="10" t="s">
+    <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M44" s="10">
-        <v>1</v>
-      </c>
-      <c r="N44" s="10">
-        <v>0</v>
-      </c>
-      <c r="O44" s="10">
-        <v>0</v>
-      </c>
-      <c r="P44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>0</v>
-      </c>
-      <c r="R44" s="10">
-        <v>1</v>
-      </c>
-      <c r="S44" s="10">
-        <v>1</v>
-      </c>
-      <c r="T44" s="10">
-        <v>0</v>
-      </c>
-      <c r="U44" s="10">
-        <v>0</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0</v>
-      </c>
-      <c r="W44" s="10">
-        <v>0</v>
-      </c>
-      <c r="X44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="10">
+      <c r="M50" s="10">
+        <v>1</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="10">
+        <v>1</v>
+      </c>
+      <c r="S50" s="10">
+        <v>1</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="10">
+        <v>0</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065" tabRatio="506"/>
+    <workbookView windowWidth="26310" windowHeight="13065" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="0">
+    <comment ref="K37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
   <si>
     <t>#class</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>kill</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>achieve</t>
   </si>
   <si>
     <r>
@@ -732,13 +738,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -762,17 +767,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,9 +787,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,22 +824,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,23 +843,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,6 +867,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -876,7 +882,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +956,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +992,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,103 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1076,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,20 +1161,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,17 +1213,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,6 +1229,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,30 +1256,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1258,10 +1264,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,16 +1276,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,16 +1294,16 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1306,97 +1312,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1854,14 +1860,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4019,80 +4025,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="7" t="s">
+    <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:27">
+      <c r="A35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="7">
-        <v>1</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1</v>
-      </c>
-      <c r="S35" s="7">
-        <v>1</v>
-      </c>
-      <c r="T35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <v>1</v>
-      </c>
-      <c r="V35" s="7">
-        <v>1</v>
-      </c>
-      <c r="W35" s="7">
-        <v>1</v>
-      </c>
-      <c r="X35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="7">
+      <c r="G35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>1</v>
+      </c>
+      <c r="S35" s="6">
+        <v>1</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A36" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -4142,16 +4154,19 @@
     </row>
     <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4204,7 +4219,7 @@
         <v>142</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>143</v>
@@ -4228,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="7">
         <v>1</v>
@@ -4263,13 +4278,13 @@
         <v>144</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -4319,17 +4334,17 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="M40" s="7">
         <v>1</v>
       </c>
@@ -4349,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="7">
         <v>0</v>
@@ -4381,323 +4396,320 @@
         <v>149</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>1</v>
+      </c>
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K42" s="7">
         <v>99999</v>
       </c>
-      <c r="M41" s="7">
-        <v>1</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>1</v>
-      </c>
-      <c r="S41" s="7">
-        <v>1</v>
-      </c>
-      <c r="T41" s="7">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7">
-        <v>1</v>
-      </c>
-      <c r="V41" s="7">
-        <v>1</v>
-      </c>
-      <c r="W41" s="7">
-        <v>1</v>
-      </c>
-      <c r="X41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A42" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M42" s="8">
-        <v>1</v>
-      </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8">
-        <v>1</v>
-      </c>
-      <c r="S42" s="8">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>0</v>
-      </c>
-      <c r="W42" s="8">
-        <v>0</v>
-      </c>
-      <c r="X42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="8">
+      <c r="M42" s="7">
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42" s="7">
+        <v>1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>1</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+      <c r="X42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A43" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="8">
+        <v>1</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>1</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M43" s="8">
-        <v>1</v>
-      </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8">
-        <v>1</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
-        <v>0</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="8">
-        <v>0</v>
-      </c>
-      <c r="X43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="8">
+      <c r="M44" s="8">
+        <v>1</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>1</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
+        <v>0</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A44" s="9" t="s">
+    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="9">
-        <v>1</v>
-      </c>
-      <c r="N44" s="9">
-        <v>1</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-      <c r="P44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>0</v>
-      </c>
-      <c r="R44" s="9">
-        <v>1</v>
-      </c>
-      <c r="S44" s="9">
-        <v>1</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0</v>
-      </c>
-      <c r="U44" s="9">
-        <v>0</v>
-      </c>
-      <c r="V44" s="9">
-        <v>0</v>
-      </c>
-      <c r="W44" s="9">
-        <v>0</v>
-      </c>
-      <c r="X44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45" s="10">
-        <v>1</v>
-      </c>
-      <c r="N45" s="10">
-        <v>0</v>
-      </c>
-      <c r="O45" s="10">
-        <v>0</v>
-      </c>
-      <c r="P45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>0</v>
-      </c>
-      <c r="R45" s="10">
-        <v>0</v>
-      </c>
-      <c r="S45" s="10">
-        <v>1</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0</v>
-      </c>
-      <c r="U45" s="10">
-        <v>0</v>
-      </c>
-      <c r="V45" s="10">
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="10">
+      <c r="M45" s="9">
+        <v>1</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <v>1</v>
+      </c>
+      <c r="S45" s="9">
+        <v>1</v>
+      </c>
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45" s="9">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A46" s="10" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="M46" s="10">
         <v>1</v>
       </c>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -4709,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="10">
         <v>1</v>
@@ -4747,13 +4759,13 @@
         <v>129</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>82</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M47" s="10">
         <v>1</v>
@@ -4803,25 +4815,25 @@
     </row>
     <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A48" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="M48" s="10">
         <v>1</v>
       </c>
       <c r="N48" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -4865,16 +4877,19 @@
     </row>
     <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A49" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="M49" s="10">
         <v>1</v>
@@ -4978,6 +4993,65 @@
         <v>0</v>
       </c>
       <c r="AA50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A51" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M51" s="10">
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <v>1</v>
+      </c>
+      <c r="S51" s="10">
+        <v>1</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="10">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="170">
   <si>
     <t>#class</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>achieve</t>
+  </si>
+  <si>
+    <t>Achieve</t>
   </si>
   <si>
     <r>
@@ -693,6 +696,9 @@
   <si>
     <t>index</t>
   </si>
+  <si>
+    <t>状态</t>
+  </si>
 </sst>
 </file>
 
@@ -700,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -737,6 +743,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -744,8 +765,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,24 +855,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,78 +880,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,14 +889,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +962,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +1004,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,73 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,55 +1058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1088,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,6 +1165,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1183,36 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1233,11 +1224,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,6 +1253,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1264,10 +1270,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,7 +1282,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,124 +1291,124 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,14 +1866,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4039,7 +4045,7 @@
         <v>95</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>68</v>
@@ -4098,7 +4104,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>68</v>
@@ -4154,19 +4160,19 @@
     </row>
     <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -4216,13 +4222,13 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A38" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>82</v>
@@ -4275,13 +4281,13 @@
     </row>
     <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A39" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>82</v>
@@ -4334,16 +4340,16 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A40" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -4393,16 +4399,16 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -4452,13 +4458,13 @@
     </row>
     <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A42" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>82</v>
@@ -4514,7 +4520,7 @@
     </row>
     <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A43" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>96</v>
@@ -4573,13 +4579,13 @@
     </row>
     <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A44" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>73</v>
@@ -4753,7 +4759,7 @@
     </row>
     <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A47" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>129</v>
@@ -4765,7 +4771,7 @@
         <v>82</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M47" s="10">
         <v>1</v>
@@ -4815,19 +4821,19 @@
     </row>
     <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A48" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>82</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M48" s="10">
         <v>1</v>
@@ -4877,19 +4883,19 @@
     </row>
     <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A49" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M49" s="10">
         <v>1</v>
@@ -4939,13 +4945,13 @@
     </row>
     <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A50" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>82</v>
@@ -4998,13 +5004,13 @@
     </row>
     <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:27">
       <c r="A51" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>82</v>
@@ -5052,6 +5058,183 @@
         <v>0</v>
       </c>
       <c r="AA51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="8">
+        <v>1</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>1</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="8">
+        <v>1</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>1</v>
+      </c>
+      <c r="S53" s="8">
+        <v>0</v>
+      </c>
+      <c r="T53" s="8">
+        <v>0</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0</v>
+      </c>
+      <c r="W53" s="8">
+        <v>0</v>
+      </c>
+      <c r="X53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>1</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="8">
+        <v>0</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0</v>
+      </c>
+      <c r="W54" s="8">
+        <v>0</v>
+      </c>
+      <c r="X54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="8">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -706,9 +706,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -751,23 +751,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,14 +789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,23 +803,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +819,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,21 +856,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -872,10 +865,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +884,13 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,7 +962,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,19 +1112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,145 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,17 +1165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,7 +1184,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,26 +1215,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,10 +1270,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1282,16 +1282,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1300,115 +1300,115 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1869,11 +1869,11 @@
   <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="$A35:$XFD35"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="176">
   <si>
     <t>#class</t>
   </si>
@@ -190,6 +190,15 @@
     <t>同步查询者</t>
   </si>
   <si>
+    <t>添加回调</t>
+  </si>
+  <si>
+    <t>删除回调</t>
+  </si>
+  <si>
+    <t>更新回调</t>
+  </si>
+  <si>
     <t>公共属性</t>
   </si>
   <si>
@@ -214,12 +223,6 @@
     <t>添加属性回调</t>
   </si>
   <si>
-    <t>更新回调</t>
-  </si>
-  <si>
-    <t>删除回调</t>
-  </si>
-  <si>
     <t>Comment(string)</t>
   </si>
   <si>
@@ -284,6 +287,15 @@
   </si>
   <si>
     <t>View(int)</t>
+  </si>
+  <si>
+    <t>AddCall(int)</t>
+  </si>
+  <si>
+    <t>RemoveCall(int)</t>
+  </si>
+  <si>
+    <t>UpdateCall(int)</t>
   </si>
   <si>
     <t>Public(int)</t>
@@ -712,9 +724,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -750,7 +762,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,15 +798,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,7 +820,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,24 +850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,28 +874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -878,8 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -894,7 +898,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,43 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,91 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1022,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,19 +1124,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,11 +1183,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,26 +1251,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,41 +1280,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1276,10 +1288,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,137 +1300,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1465,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,14 +1887,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="V23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1902,14 +1917,16 @@
     <col min="20" max="20" width="12.875" style="11" customWidth="1"/>
     <col min="21" max="21" width="15" style="11" customWidth="1"/>
     <col min="22" max="22" width="11" style="11" customWidth="1"/>
-    <col min="23" max="26" width="9" style="11" customWidth="1"/>
-    <col min="27" max="27" width="11" style="11" customWidth="1"/>
-    <col min="28" max="28" width="9" style="11" customWidth="1"/>
-    <col min="29" max="29" width="8.375" style="11" customWidth="1"/>
-    <col min="30" max="30" width="16.25" style="11" customWidth="1"/>
-    <col min="31" max="31" width="19.625" style="11" customWidth="1"/>
-    <col min="32" max="32" width="24.875" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="11"/>
+    <col min="23" max="23" width="13.75" style="11" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="11" customWidth="1"/>
+    <col min="26" max="29" width="9" style="11" customWidth="1"/>
+    <col min="30" max="30" width="11" style="11" customWidth="1"/>
+    <col min="31" max="31" width="9" style="11" customWidth="1"/>
+    <col min="32" max="32" width="8.375" style="11" customWidth="1"/>
+    <col min="33" max="33" width="16.25" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19.625" style="11" customWidth="1"/>
+    <col min="35" max="35" width="24.875" style="11" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1917,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:32">
+    <row r="2" s="2" customFormat="1" spans="1:35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1984,13 +2001,13 @@
       <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -2014,8 +2031,17 @@
       <c r="AF2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AG2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:32">
+    <row r="3" s="3" customFormat="1" spans="1:35">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -2083,13 +2109,13 @@
         <v>3</v>
       </c>
       <c r="W3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="3">
         <v>3</v>
@@ -2112,123 +2138,141 @@
       <c r="AF3" s="3">
         <v>3</v>
       </c>
+      <c r="AG3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:32">
+    <row r="4" s="4" customFormat="1" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:28">
+    <row r="5" s="5" customFormat="1" spans="1:31">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N5" s="5">
         <v>1</v>
@@ -2273,27 +2317,36 @@
         <v>1</v>
       </c>
       <c r="AB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:28">
+    <row r="6" s="5" customFormat="1" spans="1:31">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N6" s="5">
         <v>1</v>
@@ -2338,1551 +2391,1784 @@
         <v>1</v>
       </c>
       <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:28">
+    <row r="7" s="6" customFormat="1" spans="1:31">
       <c r="A7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:31">
+      <c r="A8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="6">
+      <c r="F8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:28">
-      <c r="A8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
-        <v>1</v>
-      </c>
-      <c r="X8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6">
+    <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A9" s="6" t="s">
+    <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
+    <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
+    <row r="12" s="6" customFormat="1" spans="1:31">
+      <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:28">
-      <c r="A12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
+    <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
+      <c r="I18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+    <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
+    <row r="20" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
+    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-      <c r="V17" s="6">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="6">
+    <row r="22" s="6" customFormat="1" spans="1:31">
+      <c r="A22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>1</v>
+      </c>
+      <c r="X26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6">
+        <v>0</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+      <c r="V27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6">
+        <v>1</v>
+      </c>
+      <c r="X27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6">
+        <v>1</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
+        <v>1</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0</v>
+      </c>
+      <c r="V29" s="6">
+        <v>0</v>
+      </c>
+      <c r="W29" s="6">
+        <v>1</v>
+      </c>
+      <c r="X29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
+      </c>
+      <c r="V30" s="6">
+        <v>0</v>
+      </c>
+      <c r="W30" s="6">
+        <v>1</v>
+      </c>
+      <c r="X30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A31" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="6">
+        <v>1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0</v>
+      </c>
+      <c r="W31" s="6">
+        <v>1</v>
+      </c>
+      <c r="X31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
+      <c r="A32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>1</v>
-      </c>
-      <c r="T19" s="6">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0</v>
-      </c>
-      <c r="V19" s="6">
-        <v>0</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>1</v>
-      </c>
-      <c r="T21" s="6">
-        <v>1</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:28">
-      <c r="A22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1</v>
-      </c>
-      <c r="T22" s="6">
-        <v>1</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
-      <c r="X23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A24" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>1</v>
-      </c>
-      <c r="T24" s="6">
-        <v>1</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>1</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>1</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="6">
-        <v>1</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="6">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6">
-        <v>1</v>
-      </c>
-      <c r="T27" s="6">
-        <v>0</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0</v>
-      </c>
-      <c r="V27" s="6">
-        <v>0</v>
-      </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
-      <c r="X27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <v>1</v>
-      </c>
-      <c r="T28" s="6">
-        <v>1</v>
-      </c>
-      <c r="U28" s="6">
-        <v>0</v>
-      </c>
-      <c r="V28" s="6">
-        <v>0</v>
-      </c>
-      <c r="W28" s="6">
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N29" s="6">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <v>1</v>
-      </c>
-      <c r="T29" s="6">
-        <v>1</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0</v>
-      </c>
-      <c r="V29" s="6">
-        <v>0</v>
-      </c>
-      <c r="W29" s="6">
-        <v>0</v>
-      </c>
-      <c r="X29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="6">
-        <v>1</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>1</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0</v>
-      </c>
-      <c r="V30" s="6">
-        <v>0</v>
-      </c>
-      <c r="W30" s="6">
-        <v>0</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6">
-        <v>0</v>
-      </c>
-      <c r="S31" s="6">
-        <v>1</v>
-      </c>
-      <c r="T31" s="6">
-        <v>1</v>
-      </c>
-      <c r="U31" s="6">
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <v>0</v>
-      </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
-      <c r="X31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
-      <c r="A32" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L32" s="6">
         <v>100</v>
@@ -3918,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="W32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="6">
         <v>0</v>
@@ -3935,19 +4221,28 @@
       <c r="AB32" s="6">
         <v>0</v>
       </c>
+      <c r="AC32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="33" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A33" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N33" s="6">
         <v>1</v>
@@ -3977,13 +4272,13 @@
         <v>0</v>
       </c>
       <c r="W33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="6">
         <v>0</v>
@@ -3994,19 +4289,28 @@
       <c r="AB33" s="6">
         <v>0</v>
       </c>
+      <c r="AC33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A34" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N34" s="6">
         <v>1</v>
@@ -4036,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="W34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="6">
         <v>0</v>
@@ -4053,31 +4357,40 @@
       <c r="AB34" s="6">
         <v>0</v>
       </c>
+      <c r="AC34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:28">
+    <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:31">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N35" s="6">
         <v>1</v>
@@ -4107,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="W35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="6">
         <v>0</v>
@@ -4124,19 +4437,28 @@
       <c r="AB35" s="6">
         <v>0</v>
       </c>
+      <c r="AC35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N36" s="7">
         <v>1</v>
@@ -4181,24 +4503,33 @@
         <v>1</v>
       </c>
       <c r="AB36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A37" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N37" s="7">
         <v>1</v>
@@ -4243,21 +4574,30 @@
         <v>1</v>
       </c>
       <c r="AB37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="C38" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N38" s="7">
         <v>1</v>
@@ -4302,21 +4642,30 @@
         <v>1</v>
       </c>
       <c r="AB38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A39" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N39" s="7">
         <v>1</v>
@@ -4361,21 +4710,30 @@
         <v>1</v>
       </c>
       <c r="AB39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A40" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N40" s="7">
         <v>1</v>
@@ -4420,21 +4778,30 @@
         <v>1</v>
       </c>
       <c r="AB40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A41" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N41" s="7">
         <v>1</v>
@@ -4479,21 +4846,30 @@
         <v>1</v>
       </c>
       <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A42" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L42" s="7">
         <v>99999</v>
@@ -4541,21 +4917,30 @@
         <v>1</v>
       </c>
       <c r="AB42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A43" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N43" s="8">
         <v>1</v>
@@ -4585,13 +4970,13 @@
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="8">
         <v>0</v>
@@ -4602,19 +4987,28 @@
       <c r="AB43" s="8">
         <v>0</v>
       </c>
+      <c r="AC43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A44" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N44" s="8">
         <v>1</v>
@@ -4644,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="8">
         <v>0</v>
@@ -4661,22 +5055,31 @@
       <c r="AB44" s="8">
         <v>0</v>
       </c>
+      <c r="AC44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A45" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N45" s="9">
         <v>1</v>
@@ -4706,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="9">
         <v>0</v>
@@ -4723,19 +5126,28 @@
       <c r="AB45" s="9">
         <v>0</v>
       </c>
+      <c r="AC45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A46" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N46" s="10">
         <v>1</v>
@@ -4764,14 +5176,14 @@
       <c r="V46" s="10">
         <v>0</v>
       </c>
-      <c r="W46" s="10">
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="10">
-        <v>0</v>
+      <c r="W46" s="9">
+        <v>1</v>
+      </c>
+      <c r="X46" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>1</v>
       </c>
       <c r="Z46" s="10">
         <v>0</v>
@@ -4782,22 +5194,31 @@
       <c r="AB46" s="10">
         <v>0</v>
       </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A47" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N47" s="10">
         <v>1</v>
@@ -4826,14 +5247,14 @@
       <c r="V47" s="10">
         <v>0</v>
       </c>
-      <c r="W47" s="10">
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="10">
-        <v>0</v>
+      <c r="W47" s="9">
+        <v>1</v>
+      </c>
+      <c r="X47" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>1</v>
       </c>
       <c r="Z47" s="10">
         <v>0</v>
@@ -4844,379 +5265,442 @@
       <c r="AB47" s="10">
         <v>0</v>
       </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A48" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+      <c r="O48" s="10">
+        <v>1</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0</v>
+      </c>
+      <c r="S48" s="10">
+        <v>1</v>
+      </c>
+      <c r="T48" s="10">
+        <v>1</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>1</v>
+      </c>
+      <c r="X48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A49" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N49" s="10">
+        <v>1</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <v>0</v>
+      </c>
+      <c r="S49" s="10">
+        <v>1</v>
+      </c>
+      <c r="T49" s="10">
+        <v>1</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>1</v>
+      </c>
+      <c r="X49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A50" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="10">
+        <v>0</v>
+      </c>
+      <c r="S50" s="10">
+        <v>1</v>
+      </c>
+      <c r="T50" s="10">
+        <v>1</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>1</v>
+      </c>
+      <c r="X50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A51" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N51" s="10">
+        <v>1</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="10">
+        <v>1</v>
+      </c>
+      <c r="T51" s="10">
+        <v>1</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>1</v>
+      </c>
+      <c r="X51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N52" s="8">
+        <v>1</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>1</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>1</v>
+      </c>
+      <c r="X52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:31">
+      <c r="A53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="N48" s="10">
-        <v>1</v>
-      </c>
-      <c r="O48" s="10">
-        <v>1</v>
-      </c>
-      <c r="P48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>0</v>
-      </c>
-      <c r="R48" s="10">
-        <v>0</v>
-      </c>
-      <c r="S48" s="10">
-        <v>1</v>
-      </c>
-      <c r="T48" s="10">
-        <v>1</v>
-      </c>
-      <c r="U48" s="10">
-        <v>0</v>
-      </c>
-      <c r="V48" s="10">
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="10">
+      <c r="B53" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N53" s="8">
+        <v>1</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0</v>
+      </c>
+      <c r="S53" s="8">
+        <v>1</v>
+      </c>
+      <c r="T53" s="8">
+        <v>0</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0</v>
+      </c>
+      <c r="W53" s="8">
+        <v>1</v>
+      </c>
+      <c r="X53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A49" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="N49" s="10">
-        <v>1</v>
-      </c>
-      <c r="O49" s="10">
-        <v>0</v>
-      </c>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>0</v>
-      </c>
-      <c r="R49" s="10">
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
-        <v>1</v>
-      </c>
-      <c r="T49" s="10">
-        <v>1</v>
-      </c>
-      <c r="U49" s="10">
-        <v>0</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0</v>
-      </c>
-      <c r="W49" s="10">
-        <v>0</v>
-      </c>
-      <c r="X49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A50" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N50" s="10">
-        <v>1</v>
-      </c>
-      <c r="O50" s="10">
-        <v>0</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>0</v>
-      </c>
-      <c r="R50" s="10">
-        <v>0</v>
-      </c>
-      <c r="S50" s="10">
-        <v>1</v>
-      </c>
-      <c r="T50" s="10">
-        <v>1</v>
-      </c>
-      <c r="U50" s="10">
-        <v>0</v>
-      </c>
-      <c r="V50" s="10">
-        <v>0</v>
-      </c>
-      <c r="W50" s="10">
-        <v>0</v>
-      </c>
-      <c r="X50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A51" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N51" s="10">
-        <v>1</v>
-      </c>
-      <c r="O51" s="10">
-        <v>0</v>
-      </c>
-      <c r="P51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>0</v>
-      </c>
-      <c r="R51" s="10">
-        <v>0</v>
-      </c>
-      <c r="S51" s="10">
-        <v>1</v>
-      </c>
-      <c r="T51" s="10">
-        <v>1</v>
-      </c>
-      <c r="U51" s="10">
-        <v>0</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0</v>
-      </c>
-      <c r="W51" s="10">
-        <v>0</v>
-      </c>
-      <c r="X51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N52" s="8">
-        <v>1</v>
-      </c>
-      <c r="O52" s="8">
-        <v>0</v>
-      </c>
-      <c r="P52" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>0</v>
-      </c>
-      <c r="R52" s="8">
-        <v>0</v>
-      </c>
-      <c r="S52" s="8">
-        <v>1</v>
-      </c>
-      <c r="T52" s="8">
-        <v>0</v>
-      </c>
-      <c r="U52" s="8">
-        <v>0</v>
-      </c>
-      <c r="V52" s="8">
-        <v>0</v>
-      </c>
-      <c r="W52" s="8">
-        <v>0</v>
-      </c>
-      <c r="X52" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:28">
-      <c r="A53" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N53" s="8">
-        <v>1</v>
-      </c>
-      <c r="O53" s="8">
-        <v>0</v>
-      </c>
-      <c r="P53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>0</v>
-      </c>
-      <c r="R53" s="8">
-        <v>0</v>
-      </c>
-      <c r="S53" s="8">
-        <v>1</v>
-      </c>
-      <c r="T53" s="8">
-        <v>0</v>
-      </c>
-      <c r="U53" s="8">
-        <v>0</v>
-      </c>
-      <c r="V53" s="8">
-        <v>0</v>
-      </c>
-      <c r="W53" s="8">
-        <v>0</v>
-      </c>
-      <c r="X53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" ht="15" customHeight="1" spans="1:28">
+    <row r="54" s="8" customFormat="1" ht="15" customHeight="1" spans="1:31">
       <c r="A54" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N54" s="8">
         <v>1</v>
@@ -5246,13 +5730,13 @@
         <v>0</v>
       </c>
       <c r="W54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" s="8">
         <v>0</v>
@@ -5261,6 +5745,15 @@
         <v>0</v>
       </c>
       <c r="AB54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="8">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M32" authorId="0">
+    <comment ref="M31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N32" authorId="0">
+    <comment ref="N31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M37" authorId="0">
+    <comment ref="M36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>#class</t>
   </si>
@@ -334,42 +334,39 @@
     <t>RemoveFunction(string)</t>
   </si>
   <si>
-    <t>基础属性</t>
+    <t>玩家类属性</t>
   </si>
   <si>
     <t>Global</t>
   </si>
   <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>玩家id</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>玩家基本属性</t>
+  </si>
+  <si>
     <t>basic</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>BasicPlayer</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>玩家类属性</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>玩家id</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>玩家基本属性</t>
-  </si>
-  <si>
     <t>玩家账号(服务器使用)</t>
   </si>
   <si>
@@ -409,7 +406,7 @@
     <t>本次上线时间(服务器使用)</t>
   </si>
   <si>
-    <t>onlinetime</t>
+    <t>logintime</t>
   </si>
   <si>
     <t>数据重置时间(服务器使用)</t>
@@ -730,9 +727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -767,9 +764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,8 +778,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,72 +816,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,7 +833,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,25 +871,47 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,13 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,37 +1043,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,49 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,6 +1116,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,15 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1213,17 +1201,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,20 +1225,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,6 +1265,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1294,10 +1291,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,130 +1306,130 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1890,21 +1887,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="18.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="11" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="11" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="11" customWidth="1"/>
@@ -2290,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
@@ -2299,10 +2297,10 @@
         <v>60000</v>
       </c>
       <c r="S5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="5">
         <v>1</v>
@@ -2341,93 +2339,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:32">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:32">
+      <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>60000</v>
-      </c>
-      <c r="S6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>1</v>
-      </c>
-      <c r="X6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="5">
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:32">
       <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" s="6">
         <v>1</v>
       </c>
@@ -2456,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="X7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="6">
         <v>1</v>
@@ -2483,24 +2481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:32">
+    <row r="8" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O8" s="6">
         <v>1</v>
@@ -2521,37 +2513,37 @@
         <v>1</v>
       </c>
       <c r="U8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="6">
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="6">
         <v>0</v>
@@ -2559,16 +2551,16 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O9" s="6">
         <v>1</v>
@@ -2598,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="6">
         <v>0</v>
@@ -2627,16 +2619,16 @@
     </row>
     <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O10" s="6">
         <v>1</v>
@@ -2666,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="6">
         <v>0</v>
@@ -2693,18 +2685,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="11" s="6" customFormat="1" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
@@ -2722,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="6">
         <v>0</v>
@@ -2734,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="X11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="6">
         <v>0</v>
@@ -2761,18 +2753,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:32">
+    <row r="12" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O12" s="6">
         <v>1</v>
@@ -2790,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="6">
         <v>0</v>
@@ -2802,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="6">
         <v>0</v>
@@ -2831,16 +2823,16 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A13" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O13" s="6">
         <v>1</v>
@@ -2870,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="X13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="6">
         <v>0</v>
@@ -2899,16 +2891,16 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A14" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O14" s="6">
         <v>1</v>
@@ -2938,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="X14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="6">
         <v>0</v>
@@ -2967,16 +2959,16 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A15" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O15" s="6">
         <v>1</v>
@@ -3006,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="X15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="6">
         <v>0</v>
@@ -3035,16 +3027,28 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A16" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="O16" s="6">
         <v>1</v>
@@ -3074,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="X16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="6">
         <v>0</v>
@@ -3103,34 +3107,25 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A17" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>105</v>
       </c>
       <c r="O17" s="6">
         <v>1</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="6">
         <v>0</v>
@@ -3145,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="6">
         <v>0</v>
@@ -3154,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="6">
         <v>1</v>
@@ -3183,20 +3178,20 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="O18" s="6">
         <v>1</v>
       </c>
@@ -3225,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="6">
         <v>1</v>
@@ -3254,20 +3249,20 @@
     </row>
     <row r="19" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="O19" s="6">
         <v>1</v>
       </c>
@@ -3296,10 +3291,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="6">
         <v>1</v>
@@ -3325,19 +3320,28 @@
     </row>
     <row r="20" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A20" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O20" s="6">
         <v>1</v>
@@ -3394,36 +3398,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+    <row r="21" s="6" customFormat="1" spans="1:32">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="O21" s="6">
         <v>1</v>
       </c>
       <c r="P21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
@@ -3447,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="6">
         <v>1</v>
@@ -3474,18 +3466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:32">
+    <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A22" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O22" s="6">
         <v>1</v>
@@ -3503,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="6">
         <v>0</v>
@@ -3544,16 +3536,16 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A23" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O23" s="6">
         <v>1</v>
@@ -3571,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="6">
         <v>0</v>
@@ -3583,13 +3575,13 @@
         <v>0</v>
       </c>
       <c r="X23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="6">
         <v>0</v>
@@ -3612,16 +3604,16 @@
     </row>
     <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A24" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O24" s="6">
         <v>1</v>
@@ -3642,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="6">
         <v>0</v>
@@ -3651,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="6">
         <v>0</v>
@@ -3680,16 +3672,16 @@
     </row>
     <row r="25" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="6">
         <v>1</v>
@@ -3719,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="6">
         <v>0</v>
@@ -3748,16 +3740,16 @@
     </row>
     <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A26" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="6">
         <v>1</v>
@@ -3787,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="6">
         <v>0</v>
@@ -3814,18 +3806,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O27" s="6">
         <v>1</v>
@@ -3846,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="U27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="6">
         <v>0</v>
@@ -3855,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="6">
         <v>1</v>
@@ -3884,16 +3876,16 @@
     </row>
     <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A28" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="6">
         <v>1</v>
@@ -3923,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="6">
         <v>1</v>
@@ -3952,16 +3944,16 @@
     </row>
     <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="O29" s="6">
         <v>1</v>
@@ -3982,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="6">
         <v>0</v>
@@ -3991,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="6">
         <v>0</v>
@@ -4020,16 +4012,16 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A30" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O30" s="6">
         <v>1</v>
@@ -4050,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="6">
         <v>0</v>
@@ -4059,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="X30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="6">
         <v>0</v>
@@ -4088,22 +4080,43 @@
     </row>
     <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A31" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" s="6">
+        <v>100</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
       </c>
       <c r="O31" s="6">
         <v>1</v>
       </c>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="6">
         <v>0</v>
@@ -4154,45 +4167,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+    <row r="32" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A32" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="6">
-        <v>100</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="O32" s="6">
         <v>1</v>
       </c>
       <c r="P32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="6">
         <v>0</v>
@@ -4204,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="6">
         <v>0</v>
@@ -4245,16 +4237,16 @@
     </row>
     <row r="33" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A33" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O33" s="6">
         <v>1</v>
@@ -4311,18 +4303,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="34" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A34" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="O34" s="6">
         <v>1</v>
@@ -4340,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="T34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="6">
         <v>0</v>
@@ -4379,98 +4383,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
-      <c r="A35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="6" t="s">
+    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O35" s="6">
-        <v>1</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6">
-        <v>1</v>
-      </c>
-      <c r="U35" s="6">
-        <v>1</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0</v>
-      </c>
-      <c r="W35" s="6">
-        <v>0</v>
-      </c>
-      <c r="X35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="6">
+      <c r="E35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1</v>
+      </c>
+      <c r="U35" s="7">
+        <v>1</v>
+      </c>
+      <c r="V35" s="7">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>1</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A36" s="7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="O36" s="7">
         <v>1</v>
@@ -4529,19 +4524,16 @@
     </row>
     <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="O37" s="7">
         <v>1</v>
@@ -4600,16 +4592,16 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A38" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O38" s="7">
         <v>1</v>
@@ -4627,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="7">
         <v>1</v>
@@ -4668,16 +4660,16 @@
     </row>
     <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A39" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="O39" s="7">
         <v>1</v>
@@ -4736,17 +4728,17 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A40" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="O40" s="7">
         <v>1</v>
       </c>
@@ -4766,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="7">
         <v>0</v>
@@ -4804,16 +4796,19 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A41" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>159</v>
+        <v>89</v>
+      </c>
+      <c r="M41" s="7">
+        <v>99999</v>
       </c>
       <c r="O41" s="7">
         <v>1</v>
@@ -4831,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="T41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="7">
         <v>0</v>
@@ -4870,74 +4865,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A42" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="7" t="s">
+    <row r="42" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M42" s="7">
-        <v>99999</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7">
-        <v>1</v>
-      </c>
-      <c r="U42" s="7">
-        <v>1</v>
-      </c>
-      <c r="V42" s="7">
-        <v>0</v>
-      </c>
-      <c r="W42" s="7">
-        <v>1</v>
-      </c>
-      <c r="X42" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="7">
+      <c r="B42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8">
+        <v>1</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4946,178 +4938,178 @@
         <v>164</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="E43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43" s="8">
+        <v>1</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="8">
+        <v>1</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A44" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O43" s="8">
-        <v>1</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
-        <v>1</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="8">
-        <v>0</v>
-      </c>
-      <c r="X43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="8">
+      <c r="B44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>1</v>
+      </c>
+      <c r="U44" s="9">
+        <v>1</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A44" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O44" s="8">
-        <v>1</v>
-      </c>
-      <c r="P44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>0</v>
-      </c>
-      <c r="R44" s="8">
-        <v>0</v>
-      </c>
-      <c r="S44" s="8">
-        <v>0</v>
-      </c>
-      <c r="T44" s="8">
-        <v>1</v>
-      </c>
-      <c r="U44" s="8">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8">
-        <v>0</v>
-      </c>
-      <c r="W44" s="8">
-        <v>0</v>
-      </c>
-      <c r="X44" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="9">
-        <v>1</v>
-      </c>
-      <c r="P45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>0</v>
-      </c>
-      <c r="R45" s="9">
-        <v>0</v>
-      </c>
-      <c r="S45" s="9">
-        <v>0</v>
-      </c>
-      <c r="T45" s="9">
-        <v>1</v>
-      </c>
-      <c r="U45" s="9">
-        <v>1</v>
-      </c>
-      <c r="V45" s="9">
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
+    <row r="45" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" s="10">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <v>0</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <v>1</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
         <v>0</v>
       </c>
       <c r="X45" s="9">
@@ -5129,43 +5121,46 @@
       <c r="Z45" s="9">
         <v>1</v>
       </c>
-      <c r="AA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="9">
+      <c r="AA45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A46" s="10" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="O46" s="10">
         <v>1</v>
       </c>
       <c r="P46" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="10">
         <v>0</v>
@@ -5177,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="10">
         <v>1</v>
@@ -5218,19 +5213,19 @@
     </row>
     <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A47" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O47" s="10">
         <v>1</v>
@@ -5289,25 +5284,25 @@
     </row>
     <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A48" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O48" s="10">
         <v>1</v>
       </c>
       <c r="P48" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="10">
         <v>0</v>
@@ -5360,19 +5355,16 @@
     </row>
     <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A49" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="O49" s="10">
         <v>1</v>
@@ -5431,16 +5423,16 @@
     </row>
     <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A50" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O50" s="10">
         <v>1</v>
@@ -5497,86 +5489,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A51" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O51" s="10">
-        <v>1</v>
-      </c>
-      <c r="P51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>0</v>
-      </c>
-      <c r="R51" s="10">
-        <v>0</v>
-      </c>
-      <c r="S51" s="10">
-        <v>0</v>
-      </c>
-      <c r="T51" s="10">
-        <v>1</v>
-      </c>
-      <c r="U51" s="10">
-        <v>1</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0</v>
-      </c>
-      <c r="W51" s="10">
-        <v>0</v>
-      </c>
-      <c r="X51" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="10">
+    <row r="51" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O51" s="8">
+        <v>1</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="8">
+        <v>1</v>
+      </c>
+      <c r="U51" s="8">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
+      <c r="W51" s="8">
+        <v>0</v>
+      </c>
+      <c r="X51" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A52" s="8" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O52" s="8">
         <v>1</v>
@@ -5635,16 +5627,16 @@
     </row>
     <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A53" s="8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8">
         <v>1</v>
@@ -5698,74 +5690,6 @@
         <v>0</v>
       </c>
       <c r="AF53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A54" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O54" s="8">
-        <v>1</v>
-      </c>
-      <c r="P54" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="8">
-        <v>0</v>
-      </c>
-      <c r="R54" s="8">
-        <v>0</v>
-      </c>
-      <c r="S54" s="8">
-        <v>0</v>
-      </c>
-      <c r="T54" s="8">
-        <v>1</v>
-      </c>
-      <c r="U54" s="8">
-        <v>0</v>
-      </c>
-      <c r="V54" s="8">
-        <v>0</v>
-      </c>
-      <c r="W54" s="8">
-        <v>0</v>
-      </c>
-      <c r="X54" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="8">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="506"/>
+    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M31" authorId="0">
+    <comment ref="M33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N31" authorId="0">
+    <comment ref="N33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M36" authorId="0">
+    <comment ref="M38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="188">
   <si>
     <t>#class</t>
   </si>
@@ -476,6 +476,30 @@
   </si>
   <si>
     <t>herocount</t>
+  </si>
+  <si>
+    <t>特效列表</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>脚印列表</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>脚印</t>
   </si>
   <si>
     <t>正在匹配的id</t>
@@ -685,6 +709,15 @@
     <t>记录值</t>
   </si>
   <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>特效id</t>
+  </si>
+  <si>
+    <t>脚印id</t>
+  </si>
+  <si>
     <t>配置表id</t>
   </si>
   <si>
@@ -727,9 +760,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -778,9 +811,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +835,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -803,7 +882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,53 +897,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,6 +926,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -900,18 +941,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -971,13 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,43 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,49 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1058,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,43 +1184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,6 +1234,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1224,65 +1316,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1291,10 +1324,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,137 +1336,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,13 +1494,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,14 +1923,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ53"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3534,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="23" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A23" s="6" t="s">
         <v>119</v>
       </c>
@@ -3545,13 +3581,25 @@
         <v>120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="O23" s="6">
         <v>1</v>
       </c>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="6">
         <v>0</v>
@@ -3575,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="X23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="6">
         <v>0</v>
@@ -3602,24 +3650,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="O24" s="6">
         <v>1</v>
       </c>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="6">
         <v>0</v>
@@ -3634,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="6">
         <v>0</v>
@@ -3643,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="X24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="6">
         <v>0</v>
@@ -3672,16 +3732,16 @@
     </row>
     <row r="25" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A25" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O25" s="6">
         <v>1</v>
@@ -3702,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="6">
         <v>0</v>
@@ -3740,13 +3800,13 @@
     </row>
     <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A26" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>78</v>
@@ -3806,18 +3866,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A27" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O27" s="6">
         <v>1</v>
@@ -3838,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="U27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="6">
         <v>0</v>
@@ -3853,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="6">
         <v>0</v>
@@ -3874,18 +3934,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+    <row r="28" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A28" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O28" s="6">
         <v>1</v>
@@ -3906,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="6">
         <v>0</v>
@@ -3921,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="6">
         <v>0</v>
@@ -3944,16 +4004,16 @@
     </row>
     <row r="29" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A29" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="O29" s="6">
         <v>1</v>
@@ -3974,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="6">
         <v>0</v>
@@ -3989,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="6">
         <v>0</v>
@@ -4012,13 +4072,13 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A30" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>89</v>
@@ -4057,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="6">
         <v>0</v>
@@ -4080,43 +4140,22 @@
     </row>
     <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A31" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M31" s="6">
-        <v>100</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O31" s="6">
         <v>1</v>
       </c>
       <c r="P31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="6">
         <v>0</v>
@@ -4131,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="6">
         <v>0</v>
@@ -4140,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="X31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="6">
         <v>0</v>
@@ -4167,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="32" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A32" s="6" t="s">
         <v>141</v>
       </c>
@@ -4196,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="6">
         <v>0</v>
@@ -4208,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="X32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="6">
         <v>0</v>
@@ -4235,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+    <row r="33" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
       <c r="A33" s="6" t="s">
         <v>143</v>
       </c>
@@ -4246,13 +4285,34 @@
         <v>144</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M33" s="6">
+        <v>100</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
       </c>
       <c r="O33" s="6">
         <v>1</v>
       </c>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="6">
         <v>0</v>
@@ -4264,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="6">
         <v>0</v>
@@ -4303,237 +4363,234 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A34" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="6" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
+        <v>0</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:32">
+      <c r="A36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O34" s="6">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6">
-        <v>1</v>
-      </c>
-      <c r="U34" s="6">
-        <v>1</v>
-      </c>
-      <c r="V34" s="6">
-        <v>0</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O35" s="7">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <v>1</v>
-      </c>
-      <c r="U35" s="7">
-        <v>1</v>
-      </c>
-      <c r="V35" s="7">
-        <v>0</v>
-      </c>
-      <c r="W35" s="7">
-        <v>1</v>
-      </c>
-      <c r="X35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7">
-        <v>1</v>
-      </c>
-      <c r="U36" s="7">
-        <v>1</v>
-      </c>
-      <c r="V36" s="7">
-        <v>0</v>
-      </c>
-      <c r="W36" s="7">
-        <v>1</v>
-      </c>
-      <c r="X36" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="7">
+      <c r="O36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
+        <v>1</v>
+      </c>
+      <c r="U36" s="6">
+        <v>1</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
+      </c>
+      <c r="X36" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A37" s="7" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O37" s="7">
         <v>1</v>
@@ -4592,16 +4649,19 @@
     </row>
     <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A38" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="O38" s="7">
         <v>1</v>
@@ -4619,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="7">
         <v>1</v>
@@ -4660,16 +4720,16 @@
     </row>
     <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A39" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="O39" s="7">
         <v>1</v>
@@ -4687,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="7">
         <v>1</v>
@@ -4728,16 +4788,16 @@
     </row>
     <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A40" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="O40" s="7">
         <v>1</v>
@@ -4758,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="7">
         <v>0</v>
@@ -4796,900 +4856,1309 @@
     </row>
     <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
       <c r="A41" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O41" s="7">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <v>1</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A42" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+      <c r="X42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M43" s="7">
         <v>99999</v>
       </c>
-      <c r="O41" s="7">
-        <v>1</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7">
-        <v>1</v>
-      </c>
-      <c r="U41" s="7">
-        <v>1</v>
-      </c>
-      <c r="V41" s="7">
-        <v>0</v>
-      </c>
-      <c r="W41" s="7">
-        <v>1</v>
-      </c>
-      <c r="X41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="7">
+      <c r="O43" s="7">
+        <v>1</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1</v>
+      </c>
+      <c r="U43" s="7">
+        <v>1</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>1</v>
+      </c>
+      <c r="X43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A42" s="8" t="s">
+    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O44" s="8">
+        <v>1</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8">
+        <v>1</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
+        <v>0</v>
+      </c>
+      <c r="X44" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" s="8">
+        <v>1</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8">
+        <v>1</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
+      <c r="X45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" s="9">
+        <v>1</v>
+      </c>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>1</v>
+      </c>
+      <c r="U46" s="9">
+        <v>1</v>
+      </c>
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A47" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9">
+        <v>0</v>
+      </c>
+      <c r="R47" s="9">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>1</v>
+      </c>
+      <c r="U47" s="9">
+        <v>1</v>
+      </c>
+      <c r="V47" s="9">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>1</v>
+      </c>
+      <c r="U48" s="9">
+        <v>1</v>
+      </c>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A49" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49" s="9">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1</v>
+      </c>
+      <c r="U49" s="9">
+        <v>1</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A50" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" s="9">
+        <v>1</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="9">
+        <v>1</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A51" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" s="10">
+        <v>1</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="10">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>1</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="O52" s="10">
+        <v>1</v>
+      </c>
+      <c r="P52" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10">
+        <v>1</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10">
+        <v>0</v>
+      </c>
+      <c r="X52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A53" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O53" s="10">
+        <v>1</v>
+      </c>
+      <c r="P53" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="10">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10">
+        <v>1</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
+      <c r="W53" s="10">
+        <v>0</v>
+      </c>
+      <c r="X53" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A54" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="O54" s="10">
+        <v>1</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <v>0</v>
+      </c>
+      <c r="T54" s="10">
+        <v>1</v>
+      </c>
+      <c r="U54" s="10">
+        <v>1</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <v>0</v>
+      </c>
+      <c r="X54" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A55" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O55" s="10">
+        <v>1</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10">
+        <v>0</v>
+      </c>
+      <c r="T55" s="10">
+        <v>1</v>
+      </c>
+      <c r="U55" s="10">
+        <v>1</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10">
+        <v>0</v>
+      </c>
+      <c r="X55" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" s="10">
+        <v>1</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>0</v>
+      </c>
+      <c r="T56" s="10">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
+        <v>1</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>0</v>
+      </c>
+      <c r="X56" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O57" s="8">
+        <v>1</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="8">
+        <v>1</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0</v>
+      </c>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
+      <c r="X57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O58" s="8">
+        <v>1</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="8">
+        <v>1</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0</v>
+      </c>
+      <c r="W58" s="8">
+        <v>0</v>
+      </c>
+      <c r="X58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
+      <c r="A59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="8">
-        <v>1</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8">
-        <v>0</v>
-      </c>
-      <c r="S42" s="8">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8">
-        <v>1</v>
-      </c>
-      <c r="U42" s="8">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>0</v>
-      </c>
-      <c r="W42" s="8">
-        <v>0</v>
-      </c>
-      <c r="X42" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A43" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O43" s="8">
-        <v>1</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
-        <v>1</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="8">
-        <v>0</v>
-      </c>
-      <c r="X43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O44" s="9">
-        <v>1</v>
-      </c>
-      <c r="P44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>0</v>
-      </c>
-      <c r="R44" s="9">
-        <v>0</v>
-      </c>
-      <c r="S44" s="9">
-        <v>0</v>
-      </c>
-      <c r="T44" s="9">
-        <v>1</v>
-      </c>
-      <c r="U44" s="9">
-        <v>1</v>
-      </c>
-      <c r="V44" s="9">
-        <v>0</v>
-      </c>
-      <c r="W44" s="9">
-        <v>0</v>
-      </c>
-      <c r="X44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O45" s="10">
-        <v>1</v>
-      </c>
-      <c r="P45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>0</v>
-      </c>
-      <c r="R45" s="10">
-        <v>0</v>
-      </c>
-      <c r="S45" s="10">
-        <v>0</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0</v>
-      </c>
-      <c r="U45" s="10">
-        <v>1</v>
-      </c>
-      <c r="V45" s="10">
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A46" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="O46" s="10">
-        <v>1</v>
-      </c>
-      <c r="P46" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>0</v>
-      </c>
-      <c r="R46" s="10">
-        <v>0</v>
-      </c>
-      <c r="S46" s="10">
-        <v>0</v>
-      </c>
-      <c r="T46" s="10">
-        <v>1</v>
-      </c>
-      <c r="U46" s="10">
-        <v>1</v>
-      </c>
-      <c r="V46" s="10">
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A47" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="O47" s="10">
-        <v>1</v>
-      </c>
-      <c r="P47" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="10">
-        <v>0</v>
-      </c>
-      <c r="R47" s="10">
-        <v>0</v>
-      </c>
-      <c r="S47" s="10">
-        <v>0</v>
-      </c>
-      <c r="T47" s="10">
-        <v>1</v>
-      </c>
-      <c r="U47" s="10">
-        <v>1</v>
-      </c>
-      <c r="V47" s="10">
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O48" s="10">
-        <v>1</v>
-      </c>
-      <c r="P48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>0</v>
-      </c>
-      <c r="R48" s="10">
-        <v>0</v>
-      </c>
-      <c r="S48" s="10">
-        <v>0</v>
-      </c>
-      <c r="T48" s="10">
-        <v>1</v>
-      </c>
-      <c r="U48" s="10">
-        <v>1</v>
-      </c>
-      <c r="V48" s="10">
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A49" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O49" s="10">
-        <v>1</v>
-      </c>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>0</v>
-      </c>
-      <c r="R49" s="10">
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
-        <v>0</v>
-      </c>
-      <c r="T49" s="10">
-        <v>1</v>
-      </c>
-      <c r="U49" s="10">
-        <v>1</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0</v>
-      </c>
-      <c r="W49" s="10">
-        <v>0</v>
-      </c>
-      <c r="X49" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A50" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O50" s="10">
-        <v>1</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>0</v>
-      </c>
-      <c r="R50" s="10">
-        <v>0</v>
-      </c>
-      <c r="S50" s="10">
-        <v>0</v>
-      </c>
-      <c r="T50" s="10">
-        <v>1</v>
-      </c>
-      <c r="U50" s="10">
-        <v>1</v>
-      </c>
-      <c r="V50" s="10">
-        <v>0</v>
-      </c>
-      <c r="W50" s="10">
-        <v>0</v>
-      </c>
-      <c r="X50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O51" s="8">
-        <v>1</v>
-      </c>
-      <c r="P51" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="8">
-        <v>0</v>
-      </c>
-      <c r="R51" s="8">
-        <v>0</v>
-      </c>
-      <c r="S51" s="8">
-        <v>0</v>
-      </c>
-      <c r="T51" s="8">
-        <v>1</v>
-      </c>
-      <c r="U51" s="8">
-        <v>0</v>
-      </c>
-      <c r="V51" s="8">
-        <v>0</v>
-      </c>
-      <c r="W51" s="8">
-        <v>0</v>
-      </c>
-      <c r="X51" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A52" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O52" s="8">
-        <v>1</v>
-      </c>
-      <c r="P52" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>0</v>
-      </c>
-      <c r="R52" s="8">
-        <v>0</v>
-      </c>
-      <c r="S52" s="8">
-        <v>0</v>
-      </c>
-      <c r="T52" s="8">
-        <v>1</v>
-      </c>
-      <c r="U52" s="8">
-        <v>0</v>
-      </c>
-      <c r="V52" s="8">
-        <v>0</v>
-      </c>
-      <c r="W52" s="8">
-        <v>0</v>
-      </c>
-      <c r="X52" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="15" customHeight="1" spans="1:32">
-      <c r="A53" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O53" s="8">
-        <v>1</v>
-      </c>
-      <c r="P53" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="8">
-        <v>0</v>
-      </c>
-      <c r="R53" s="8">
-        <v>0</v>
-      </c>
-      <c r="S53" s="8">
-        <v>0</v>
-      </c>
-      <c r="T53" s="8">
-        <v>1</v>
-      </c>
-      <c r="U53" s="8">
-        <v>0</v>
-      </c>
-      <c r="V53" s="8">
-        <v>0</v>
-      </c>
-      <c r="W53" s="8">
-        <v>0</v>
-      </c>
-      <c r="X53" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="8">
+      <c r="O59" s="8">
+        <v>1</v>
+      </c>
+      <c r="P59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8">
+        <v>0</v>
+      </c>
+      <c r="T59" s="8">
+        <v>1</v>
+      </c>
+      <c r="U59" s="8">
+        <v>0</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0</v>
+      </c>
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
+      <c r="X59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -1941,11 +1941,11 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="7">
         <v>0</v>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13140" tabRatio="506"/>
+    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M34" authorId="0">
+    <comment ref="M36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N34" authorId="0">
+    <comment ref="N36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M39" authorId="0">
+    <comment ref="M41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="194">
   <si>
     <t>#class</t>
   </si>
@@ -487,6 +487,12 @@
     <t>特效</t>
   </si>
   <si>
+    <t>选择的特效</t>
+  </si>
+  <si>
+    <t>effectid</t>
+  </si>
+  <si>
     <t>脚印列表</t>
   </si>
   <si>
@@ -497,6 +503,12 @@
   </si>
   <si>
     <t>脚印</t>
+  </si>
+  <si>
+    <t>选择的脚印</t>
+  </si>
+  <si>
+    <t>footid</t>
   </si>
   <si>
     <t>正在匹配的id</t>
@@ -765,10 +777,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -817,17 +829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,10 +853,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,52 +877,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +899,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,6 +914,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -947,7 +959,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1022,31 +1034,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1094,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1136,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,31 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,60 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,17 +1237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,31 +1271,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,11 +1287,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1316,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1330,10 +1342,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1345,134 +1357,134 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,9 +1506,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1513,9 +1522,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,43 +1947,43 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="13" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="13" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="13" customWidth="1"/>
-    <col min="15" max="16" width="19.25" style="13" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="13" customWidth="1"/>
-    <col min="19" max="19" width="11" style="13" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="13" customWidth="1"/>
-    <col min="21" max="21" width="15" style="13" customWidth="1"/>
-    <col min="22" max="22" width="11" style="13" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="13" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="13" customWidth="1"/>
-    <col min="26" max="29" width="9" style="13" customWidth="1"/>
-    <col min="30" max="30" width="11" style="13" customWidth="1"/>
-    <col min="31" max="31" width="8.375" style="13" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="13" customWidth="1"/>
-    <col min="33" max="33" width="19.625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="13" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="48.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="12" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="12" customWidth="1"/>
+    <col min="13" max="14" width="18.25" style="12" customWidth="1"/>
+    <col min="15" max="16" width="19.25" style="12" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11" style="12" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="15" style="12" customWidth="1"/>
+    <col min="22" max="22" width="11" style="12" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="12" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="12" customWidth="1"/>
+    <col min="26" max="29" width="9" style="12" customWidth="1"/>
+    <col min="30" max="30" width="11" style="12" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="12" customWidth="1"/>
+    <col min="33" max="33" width="19.625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="12" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -3065,77 +3071,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="25" s="6" customFormat="1" spans="1:30">
       <c r="A25" s="6" t="s">
         <v>122</v>
       </c>
@@ -3617,84 +3623,84 @@
         <v>123</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A26" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>1</v>
-      </c>
-      <c r="T25" s="6">
-        <v>1</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <v>1</v>
-      </c>
-      <c r="X25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A26" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="O26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="6">
         <v>0</v>
@@ -3718,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="6">
         <v>0</v>
@@ -3742,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+    <row r="27" s="6" customFormat="1" spans="1:30">
       <c r="A27" s="6" t="s">
         <v>128</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>129</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O27" s="6">
         <v>0</v>
@@ -3771,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="6">
         <v>0</v>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="6">
         <v>0</v>
@@ -3815,7 +3821,7 @@
         <v>131</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O28" s="6">
         <v>0</v>
@@ -3833,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="6">
         <v>0</v>
@@ -3928,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="30" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A30" s="6" t="s">
         <v>134</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>135</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O30" s="6">
         <v>0</v>
@@ -3957,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="6">
         <v>0</v>
@@ -3972,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="6">
         <v>0</v>
@@ -3990,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="31" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A31" s="6" t="s">
         <v>136</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>137</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O31" s="6">
         <v>0</v>
@@ -4019,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="6">
         <v>0</v>
@@ -4034,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="6">
         <v>0</v>
@@ -4063,7 +4069,7 @@
         <v>139</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O32" s="6">
         <v>0</v>
@@ -4081,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="6">
         <v>0</v>
@@ -4096,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="6">
         <v>0</v>
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="6">
         <v>0</v>
@@ -4187,87 +4193,66 @@
         <v>143</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>1</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A35" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="6">
-        <v>100</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>1</v>
-      </c>
-      <c r="T34" s="6">
-        <v>1</v>
-      </c>
-      <c r="U34" s="6">
-        <v>0</v>
-      </c>
-      <c r="V34" s="6">
-        <v>0</v>
-      </c>
-      <c r="W34" s="6">
-        <v>1</v>
-      </c>
-      <c r="X34" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A35" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>85</v>
@@ -4285,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="6">
         <v>0</v>
@@ -4297,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="W35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="6">
         <v>0</v>
@@ -4321,21 +4306,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+    <row r="36" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A36" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>85</v>
+      <c r="M36" s="6">
+        <v>100</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
       </c>
       <c r="O36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -4347,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="6">
         <v>0</v>
@@ -4383,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="37" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A37" s="6" t="s">
         <v>152</v>
       </c>
@@ -4394,1758 +4400,1764 @@
         <v>153</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6">
+        <v>1</v>
+      </c>
+      <c r="X37" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="6" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0</v>
+      </c>
+      <c r="V38" s="6">
+        <v>0</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1</v>
+      </c>
+      <c r="X38" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A39" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F39" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <v>1</v>
-      </c>
-      <c r="T37" s="6">
-        <v>1</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="6">
-        <v>0</v>
-      </c>
-      <c r="W37" s="6">
-        <v>1</v>
-      </c>
-      <c r="X37" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A38" s="8" t="s">
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <v>1</v>
+      </c>
+      <c r="T39" s="6">
+        <v>1</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0</v>
+      </c>
+      <c r="W39" s="6">
+        <v>1</v>
+      </c>
+      <c r="X39" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>0</v>
-      </c>
-      <c r="R38" s="8">
-        <v>0</v>
-      </c>
-      <c r="S38" s="8">
-        <v>1</v>
-      </c>
-      <c r="T38" s="8">
-        <v>1</v>
-      </c>
-      <c r="U38" s="8">
-        <v>0</v>
-      </c>
-      <c r="V38" s="8">
-        <v>1</v>
-      </c>
-      <c r="W38" s="8">
-        <v>1</v>
-      </c>
-      <c r="X38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>1</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7">
+        <v>1</v>
+      </c>
+      <c r="W40" s="7">
+        <v>1</v>
+      </c>
+      <c r="X40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M41" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>1</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+      <c r="X42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1</v>
+      </c>
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>1</v>
+      </c>
+      <c r="W43" s="7">
+        <v>1</v>
+      </c>
+      <c r="X43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A44" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>1</v>
+      </c>
+      <c r="W44" s="7">
+        <v>1</v>
+      </c>
+      <c r="X44" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>1</v>
+      </c>
+      <c r="W45" s="7">
+        <v>1</v>
+      </c>
+      <c r="X45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46" s="7">
+        <v>99999</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>1</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>1</v>
+      </c>
+      <c r="W46" s="7">
+        <v>1</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="8">
+        <v>1</v>
+      </c>
+      <c r="T47" s="8">
+        <v>0</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
+      <c r="W47" s="8">
+        <v>1</v>
+      </c>
+      <c r="X47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
+        <v>1</v>
+      </c>
+      <c r="T48" s="8">
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+      <c r="W48" s="8">
+        <v>1</v>
+      </c>
+      <c r="X48" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A49" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="9">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1</v>
+      </c>
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>1</v>
+      </c>
+      <c r="X49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A50" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="9">
+        <v>1</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1</v>
+      </c>
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="9">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>1</v>
+      </c>
+      <c r="X50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A51" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" s="9">
+        <v>1</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>1</v>
+      </c>
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+      <c r="U51" s="9">
+        <v>0</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>1</v>
+      </c>
+      <c r="X51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="13">
+        <v>1</v>
+      </c>
+      <c r="X52" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A53" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O53" s="10">
+        <v>1</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="10">
+        <v>1</v>
+      </c>
+      <c r="T53" s="10">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10">
+        <v>0</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>1</v>
+      </c>
+      <c r="X53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A54" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="O54" s="10">
+        <v>1</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <v>1</v>
+      </c>
+      <c r="T54" s="10">
+        <v>1</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="13">
+        <v>1</v>
+      </c>
+      <c r="X54" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A55" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>0</v>
+      </c>
+      <c r="R55" s="10">
+        <v>0</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1</v>
+      </c>
+      <c r="T55" s="10">
+        <v>1</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="13">
+        <v>1</v>
+      </c>
+      <c r="X55" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>1</v>
+      </c>
+      <c r="T56" s="10">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="13">
+        <v>1</v>
+      </c>
+      <c r="X56" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A57" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>1</v>
+      </c>
+      <c r="X57" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="O39" s="8">
-        <v>0</v>
-      </c>
-      <c r="P39" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>0</v>
-      </c>
-      <c r="R39" s="8">
-        <v>0</v>
-      </c>
-      <c r="S39" s="8">
-        <v>1</v>
-      </c>
-      <c r="T39" s="8">
-        <v>1</v>
-      </c>
-      <c r="U39" s="8">
-        <v>0</v>
-      </c>
-      <c r="V39" s="8">
-        <v>1</v>
-      </c>
-      <c r="W39" s="8">
-        <v>1</v>
-      </c>
-      <c r="X39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A40" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="C58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O40" s="8">
-        <v>0</v>
-      </c>
-      <c r="P40" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8">
-        <v>0</v>
-      </c>
-      <c r="R40" s="8">
-        <v>0</v>
-      </c>
-      <c r="S40" s="8">
-        <v>1</v>
-      </c>
-      <c r="T40" s="8">
-        <v>1</v>
-      </c>
-      <c r="U40" s="8">
-        <v>0</v>
-      </c>
-      <c r="V40" s="8">
-        <v>1</v>
-      </c>
-      <c r="W40" s="8">
-        <v>1</v>
-      </c>
-      <c r="X40" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A41" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
+        <v>1</v>
+      </c>
+      <c r="T58" s="8">
+        <v>0</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0</v>
+      </c>
+      <c r="W58" s="8">
+        <v>1</v>
+      </c>
+      <c r="X58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A59" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O41" s="8">
-        <v>0</v>
-      </c>
-      <c r="P41" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>0</v>
-      </c>
-      <c r="R41" s="8">
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <v>0</v>
-      </c>
-      <c r="T41" s="8">
-        <v>1</v>
-      </c>
-      <c r="U41" s="8">
-        <v>0</v>
-      </c>
-      <c r="V41" s="8">
-        <v>1</v>
-      </c>
-      <c r="W41" s="8">
-        <v>1</v>
-      </c>
-      <c r="X41" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A42" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-      <c r="P42" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8">
-        <v>0</v>
-      </c>
-      <c r="S42" s="8">
-        <v>0</v>
-      </c>
-      <c r="T42" s="8">
-        <v>1</v>
-      </c>
-      <c r="U42" s="8">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>1</v>
-      </c>
-      <c r="W42" s="8">
-        <v>1</v>
-      </c>
-      <c r="X42" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A43" s="8" t="s">
+      <c r="O59" s="8">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8">
+        <v>1</v>
+      </c>
+      <c r="T59" s="8">
+        <v>0</v>
+      </c>
+      <c r="U59" s="8">
+        <v>0</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0</v>
+      </c>
+      <c r="W59" s="8">
+        <v>1</v>
+      </c>
+      <c r="X59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A60" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-      <c r="P43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
-      <c r="T43" s="8">
-        <v>0</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-      <c r="V43" s="8">
-        <v>1</v>
-      </c>
-      <c r="W43" s="8">
-        <v>1</v>
-      </c>
-      <c r="X43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A44" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M44" s="8">
-        <v>99999</v>
-      </c>
-      <c r="O44" s="8">
-        <v>0</v>
-      </c>
-      <c r="P44" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>0</v>
-      </c>
-      <c r="R44" s="8">
-        <v>0</v>
-      </c>
-      <c r="S44" s="8">
-        <v>1</v>
-      </c>
-      <c r="T44" s="8">
-        <v>1</v>
-      </c>
-      <c r="U44" s="8">
-        <v>0</v>
-      </c>
-      <c r="V44" s="8">
-        <v>1</v>
-      </c>
-      <c r="W44" s="8">
-        <v>1</v>
-      </c>
-      <c r="X44" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="O60" s="8">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0</v>
+      </c>
+      <c r="S60" s="8">
+        <v>1</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0</v>
+      </c>
+      <c r="W60" s="8">
+        <v>1</v>
+      </c>
+      <c r="X60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A61" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="B61" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-      <c r="P45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>0</v>
-      </c>
-      <c r="R45" s="9">
-        <v>0</v>
-      </c>
-      <c r="S45" s="9">
-        <v>1</v>
-      </c>
-      <c r="T45" s="9">
-        <v>0</v>
-      </c>
-      <c r="U45" s="9">
-        <v>0</v>
-      </c>
-      <c r="V45" s="9">
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <v>1</v>
-      </c>
-      <c r="X45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A46" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="R61" s="11">
+        <v>0</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0</v>
+      </c>
+      <c r="T61" s="11">
+        <v>0</v>
+      </c>
+      <c r="U61" s="11">
+        <v>0</v>
+      </c>
+      <c r="V61" s="11">
+        <v>0</v>
+      </c>
+      <c r="W61" s="11">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="11" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
+      <c r="A62" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E62" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-      <c r="P46" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <v>0</v>
-      </c>
-      <c r="S46" s="9">
-        <v>1</v>
-      </c>
-      <c r="T46" s="9">
-        <v>0</v>
-      </c>
-      <c r="U46" s="9">
-        <v>0</v>
-      </c>
-      <c r="V46" s="9">
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <v>1</v>
-      </c>
-      <c r="X46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A47" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>0</v>
+      </c>
+      <c r="R62" s="11">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>1</v>
+      </c>
+      <c r="T62" s="11">
+        <v>0</v>
+      </c>
+      <c r="U62" s="11">
+        <v>0</v>
+      </c>
+      <c r="V62" s="11">
+        <v>0</v>
+      </c>
+      <c r="W62" s="11">
+        <v>0</v>
+      </c>
+      <c r="X62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A63" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O47" s="10">
-        <v>1</v>
-      </c>
-      <c r="P47" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="10">
-        <v>0</v>
-      </c>
-      <c r="R47" s="10">
-        <v>0</v>
-      </c>
-      <c r="S47" s="10">
-        <v>1</v>
-      </c>
-      <c r="T47" s="10">
-        <v>1</v>
-      </c>
-      <c r="U47" s="10">
-        <v>0</v>
-      </c>
-      <c r="V47" s="10">
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <v>1</v>
-      </c>
-      <c r="X47" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A48" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>0</v>
-      </c>
-      <c r="R48" s="10">
-        <v>0</v>
-      </c>
-      <c r="S48" s="10">
-        <v>1</v>
-      </c>
-      <c r="T48" s="10">
-        <v>1</v>
-      </c>
-      <c r="U48" s="10">
-        <v>0</v>
-      </c>
-      <c r="V48" s="10">
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <v>1</v>
-      </c>
-      <c r="X48" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A49" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>0</v>
-      </c>
-      <c r="R49" s="10">
-        <v>0</v>
-      </c>
-      <c r="S49" s="10">
-        <v>1</v>
-      </c>
-      <c r="T49" s="10">
-        <v>1</v>
-      </c>
-      <c r="U49" s="10">
-        <v>0</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0</v>
-      </c>
-      <c r="W49" s="10">
-        <v>1</v>
-      </c>
-      <c r="X49" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A50" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O50" s="10">
-        <v>1</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>0</v>
-      </c>
-      <c r="R50" s="10">
-        <v>0</v>
-      </c>
-      <c r="S50" s="10">
-        <v>1</v>
-      </c>
-      <c r="T50" s="10">
-        <v>1</v>
-      </c>
-      <c r="U50" s="10">
-        <v>0</v>
-      </c>
-      <c r="V50" s="10">
-        <v>0</v>
-      </c>
-      <c r="W50" s="10">
-        <v>1</v>
-      </c>
-      <c r="X50" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A51" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="O51" s="10">
-        <v>1</v>
-      </c>
-      <c r="P51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>0</v>
-      </c>
-      <c r="R51" s="10">
-        <v>0</v>
-      </c>
-      <c r="S51" s="10">
-        <v>1</v>
-      </c>
-      <c r="T51" s="10">
-        <v>1</v>
-      </c>
-      <c r="U51" s="10">
-        <v>0</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0</v>
-      </c>
-      <c r="W51" s="10">
-        <v>1</v>
-      </c>
-      <c r="X51" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A52" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>0</v>
+      </c>
+      <c r="R63" s="11">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>0</v>
+      </c>
+      <c r="T63" s="11">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <v>0</v>
+      </c>
+      <c r="V63" s="11">
+        <v>0</v>
+      </c>
+      <c r="W63" s="11">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A64" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O52" s="11">
-        <v>0</v>
-      </c>
-      <c r="P52" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="11">
-        <v>0</v>
-      </c>
-      <c r="R52" s="11">
-        <v>0</v>
-      </c>
-      <c r="S52" s="11">
-        <v>0</v>
-      </c>
-      <c r="T52" s="11">
-        <v>1</v>
-      </c>
-      <c r="U52" s="11">
-        <v>0</v>
-      </c>
-      <c r="V52" s="11">
-        <v>0</v>
-      </c>
-      <c r="W52" s="15">
-        <v>1</v>
-      </c>
-      <c r="X52" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A53" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="O53" s="11">
-        <v>1</v>
-      </c>
-      <c r="P53" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="11">
-        <v>0</v>
-      </c>
-      <c r="R53" s="11">
-        <v>0</v>
-      </c>
-      <c r="S53" s="11">
-        <v>1</v>
-      </c>
-      <c r="T53" s="11">
-        <v>1</v>
-      </c>
-      <c r="U53" s="11">
-        <v>0</v>
-      </c>
-      <c r="V53" s="11">
-        <v>0</v>
-      </c>
-      <c r="W53" s="15">
-        <v>1</v>
-      </c>
-      <c r="X53" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A54" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="O54" s="11">
-        <v>1</v>
-      </c>
-      <c r="P54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11">
-        <v>0</v>
-      </c>
-      <c r="R54" s="11">
-        <v>0</v>
-      </c>
-      <c r="S54" s="11">
-        <v>1</v>
-      </c>
-      <c r="T54" s="11">
-        <v>1</v>
-      </c>
-      <c r="U54" s="11">
-        <v>0</v>
-      </c>
-      <c r="V54" s="11">
-        <v>0</v>
-      </c>
-      <c r="W54" s="15">
-        <v>1</v>
-      </c>
-      <c r="X54" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A55" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="O55" s="11">
-        <v>0</v>
-      </c>
-      <c r="P55" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="11">
-        <v>0</v>
-      </c>
-      <c r="R55" s="11">
-        <v>0</v>
-      </c>
-      <c r="S55" s="11">
-        <v>1</v>
-      </c>
-      <c r="T55" s="11">
-        <v>1</v>
-      </c>
-      <c r="U55" s="11">
-        <v>0</v>
-      </c>
-      <c r="V55" s="11">
-        <v>0</v>
-      </c>
-      <c r="W55" s="15">
-        <v>1</v>
-      </c>
-      <c r="X55" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A56" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O56" s="11">
-        <v>0</v>
-      </c>
-      <c r="P56" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="11">
-        <v>0</v>
-      </c>
-      <c r="R56" s="11">
-        <v>0</v>
-      </c>
-      <c r="S56" s="11">
-        <v>1</v>
-      </c>
-      <c r="T56" s="11">
-        <v>1</v>
-      </c>
-      <c r="U56" s="11">
-        <v>0</v>
-      </c>
-      <c r="V56" s="11">
-        <v>0</v>
-      </c>
-      <c r="W56" s="15">
-        <v>1</v>
-      </c>
-      <c r="X56" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" s="11" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A57" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O57" s="11">
-        <v>0</v>
-      </c>
-      <c r="P57" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="11">
-        <v>0</v>
-      </c>
-      <c r="R57" s="11">
-        <v>0</v>
-      </c>
-      <c r="S57" s="11">
-        <v>1</v>
-      </c>
-      <c r="T57" s="11">
-        <v>1</v>
-      </c>
-      <c r="U57" s="11">
-        <v>0</v>
-      </c>
-      <c r="V57" s="11">
-        <v>0</v>
-      </c>
-      <c r="W57" s="15">
-        <v>1</v>
-      </c>
-      <c r="X57" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O58" s="9">
-        <v>0</v>
-      </c>
-      <c r="P58" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>0</v>
-      </c>
-      <c r="R58" s="9">
-        <v>0</v>
-      </c>
-      <c r="S58" s="9">
-        <v>1</v>
-      </c>
-      <c r="T58" s="9">
-        <v>0</v>
-      </c>
-      <c r="U58" s="9">
-        <v>0</v>
-      </c>
-      <c r="V58" s="9">
-        <v>0</v>
-      </c>
-      <c r="W58" s="9">
-        <v>1</v>
-      </c>
-      <c r="X58" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A59" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" s="9">
-        <v>0</v>
-      </c>
-      <c r="P59" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="9">
-        <v>0</v>
-      </c>
-      <c r="R59" s="9">
-        <v>0</v>
-      </c>
-      <c r="S59" s="9">
-        <v>1</v>
-      </c>
-      <c r="T59" s="9">
-        <v>0</v>
-      </c>
-      <c r="U59" s="9">
-        <v>0</v>
-      </c>
-      <c r="V59" s="9">
-        <v>0</v>
-      </c>
-      <c r="W59" s="9">
-        <v>1</v>
-      </c>
-      <c r="X59" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A60" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O60" s="9">
-        <v>0</v>
-      </c>
-      <c r="P60" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>0</v>
-      </c>
-      <c r="R60" s="9">
-        <v>0</v>
-      </c>
-      <c r="S60" s="9">
-        <v>1</v>
-      </c>
-      <c r="T60" s="9">
-        <v>0</v>
-      </c>
-      <c r="U60" s="9">
-        <v>0</v>
-      </c>
-      <c r="V60" s="9">
-        <v>0</v>
-      </c>
-      <c r="W60" s="9">
-        <v>1</v>
-      </c>
-      <c r="X60" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A61" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O61" s="12">
-        <v>0</v>
-      </c>
-      <c r="P61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="12">
-        <v>0</v>
-      </c>
-      <c r="R61" s="12">
-        <v>0</v>
-      </c>
-      <c r="S61" s="12">
-        <v>0</v>
-      </c>
-      <c r="T61" s="12">
-        <v>0</v>
-      </c>
-      <c r="U61" s="12">
-        <v>0</v>
-      </c>
-      <c r="V61" s="12">
-        <v>0</v>
-      </c>
-      <c r="W61" s="12">
-        <v>0</v>
-      </c>
-      <c r="X61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="12" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
-      <c r="A62" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O62" s="12">
-        <v>0</v>
-      </c>
-      <c r="P62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="12">
-        <v>0</v>
-      </c>
-      <c r="R62" s="12">
-        <v>0</v>
-      </c>
-      <c r="S62" s="12">
-        <v>1</v>
-      </c>
-      <c r="T62" s="12">
-        <v>0</v>
-      </c>
-      <c r="U62" s="12">
-        <v>0</v>
-      </c>
-      <c r="V62" s="12">
-        <v>0</v>
-      </c>
-      <c r="W62" s="12">
-        <v>0</v>
-      </c>
-      <c r="X62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A63" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O63" s="12">
-        <v>0</v>
-      </c>
-      <c r="P63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="12">
-        <v>0</v>
-      </c>
-      <c r="R63" s="12">
-        <v>0</v>
-      </c>
-      <c r="S63" s="12">
-        <v>0</v>
-      </c>
-      <c r="T63" s="12">
-        <v>0</v>
-      </c>
-      <c r="U63" s="12">
-        <v>0</v>
-      </c>
-      <c r="V63" s="12">
-        <v>0</v>
-      </c>
-      <c r="W63" s="12">
-        <v>0</v>
-      </c>
-      <c r="X63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A64" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O64" s="12">
-        <v>0</v>
-      </c>
-      <c r="P64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="12">
-        <v>0</v>
-      </c>
-      <c r="R64" s="12">
-        <v>0</v>
-      </c>
-      <c r="S64" s="12">
-        <v>0</v>
-      </c>
-      <c r="T64" s="12">
-        <v>0</v>
-      </c>
-      <c r="U64" s="12">
-        <v>0</v>
-      </c>
-      <c r="V64" s="12">
-        <v>0</v>
-      </c>
-      <c r="W64" s="12">
-        <v>0</v>
-      </c>
-      <c r="X64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="12">
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <v>0</v>
+      </c>
+      <c r="V64" s="11">
+        <v>0</v>
+      </c>
+      <c r="W64" s="11">
+        <v>0</v>
+      </c>
+      <c r="X64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/2000-玩家-属性定义.xlsx
+++ b/Resource/excel/2000-玩家-属性定义.xlsx
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M41" authorId="0">
+    <comment ref="M43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="204">
   <si>
     <t>#class</t>
   </si>
@@ -596,6 +596,21 @@
   </si>
   <si>
     <t>Achieve</t>
+  </si>
+  <si>
+    <t>好友列表</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>好友申请列表</t>
+  </si>
+  <si>
+    <t>friendinvite</t>
   </si>
   <si>
     <r>
@@ -771,6 +786,21 @@
   <si>
     <t>lasttime</t>
   </si>
+  <si>
+    <t>添加好友时间</t>
+  </si>
+  <si>
+    <t>FriendInvite</t>
+  </si>
+  <si>
+    <t>申请时间</t>
+  </si>
+  <si>
+    <t>申请留言</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
 </sst>
 </file>
 
@@ -778,9 +808,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -815,6 +845,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -836,70 +889,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,7 +913,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,6 +950,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -959,10 +975,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -977,7 +1007,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,7 +1058,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,13 +1094,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,151 +1238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,6 +1274,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1248,6 +1299,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,26 +1347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1302,35 +1362,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,10 +1378,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,137 +1390,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,10 +1557,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,46 +1983,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="X23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="bottomRight" activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="12" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="12" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="12" customWidth="1"/>
-    <col min="15" max="16" width="19.25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11" style="12" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="12" customWidth="1"/>
-    <col min="21" max="21" width="15" style="12" customWidth="1"/>
-    <col min="22" max="22" width="11" style="12" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="12" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="12" customWidth="1"/>
-    <col min="26" max="29" width="9" style="12" customWidth="1"/>
-    <col min="30" max="30" width="11" style="12" customWidth="1"/>
-    <col min="31" max="31" width="8.375" style="12" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="12" customWidth="1"/>
-    <col min="33" max="33" width="19.625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="12" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="48.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="13" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="13" customWidth="1"/>
+    <col min="13" max="14" width="18.25" style="13" customWidth="1"/>
+    <col min="15" max="16" width="19.25" style="13" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="13" customWidth="1"/>
+    <col min="19" max="19" width="11" style="13" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="15" style="13" customWidth="1"/>
+    <col min="22" max="22" width="11" style="13" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="13" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="13" customWidth="1"/>
+    <col min="26" max="29" width="9" style="13" customWidth="1"/>
+    <col min="30" max="30" width="11" style="13" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="13" customWidth="1"/>
+    <col min="33" max="33" width="19.625" style="13" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="13" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -2418,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="Z6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:30">
@@ -4587,145 +4626,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="40" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A40" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <v>1</v>
-      </c>
-      <c r="T40" s="7">
-        <v>1</v>
-      </c>
-      <c r="U40" s="7">
-        <v>0</v>
-      </c>
-      <c r="V40" s="7">
-        <v>1</v>
-      </c>
-      <c r="W40" s="7">
-        <v>1</v>
-      </c>
-      <c r="X40" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A41" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="H40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <v>1</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1</v>
+      </c>
+      <c r="U40" s="6">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0</v>
+      </c>
+      <c r="W40" s="6">
+        <v>0</v>
+      </c>
+      <c r="X40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7">
-        <v>1</v>
-      </c>
-      <c r="T41" s="7">
-        <v>1</v>
-      </c>
-      <c r="U41" s="7">
-        <v>0</v>
-      </c>
-      <c r="V41" s="7">
-        <v>1</v>
-      </c>
-      <c r="W41" s="7">
-        <v>1</v>
-      </c>
-      <c r="X41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="7">
-        <v>1</v>
+      <c r="G41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <v>1</v>
+      </c>
+      <c r="T41" s="6">
+        <v>1</v>
+      </c>
+      <c r="U41" s="6">
+        <v>0</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0</v>
+      </c>
+      <c r="W41" s="6">
+        <v>0</v>
+      </c>
+      <c r="X41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A42" s="7" t="s">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O42" s="7">
         <v>0</v>
@@ -4781,13 +4836,16 @@
         <v>165</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>166</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="O43" s="7">
         <v>0</v>
@@ -4802,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="7">
         <v>1</v>
@@ -4840,16 +4898,16 @@
     </row>
     <row r="44" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O44" s="7">
         <v>0</v>
@@ -4864,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="7">
         <v>1</v>
@@ -4905,13 +4963,13 @@
         <v>170</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O45" s="7">
         <v>0</v>
@@ -4929,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="7">
         <v>0</v>
@@ -4967,326 +5025,320 @@
         <v>172</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>1</v>
+      </c>
+      <c r="W46" s="7">
+        <v>1</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7">
+        <v>1</v>
+      </c>
+      <c r="W47" s="7">
+        <v>1</v>
+      </c>
+      <c r="X47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A48" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M48" s="7">
         <v>99999</v>
       </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7">
-        <v>1</v>
-      </c>
-      <c r="T46" s="7">
-        <v>1</v>
-      </c>
-      <c r="U46" s="7">
-        <v>0</v>
-      </c>
-      <c r="V46" s="7">
-        <v>1</v>
-      </c>
-      <c r="W46" s="7">
-        <v>1</v>
-      </c>
-      <c r="X46" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A47" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="7">
+        <v>1</v>
+      </c>
+      <c r="T48" s="7">
+        <v>1</v>
+      </c>
+      <c r="U48" s="7">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7">
+        <v>1</v>
+      </c>
+      <c r="W48" s="7">
+        <v>1</v>
+      </c>
+      <c r="X48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A49" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O47" s="8">
-        <v>0</v>
-      </c>
-      <c r="P47" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="8">
-        <v>0</v>
-      </c>
-      <c r="R47" s="8">
-        <v>0</v>
-      </c>
-      <c r="S47" s="8">
-        <v>1</v>
-      </c>
-      <c r="T47" s="8">
-        <v>0</v>
-      </c>
-      <c r="U47" s="8">
-        <v>0</v>
-      </c>
-      <c r="V47" s="8">
-        <v>0</v>
-      </c>
-      <c r="W47" s="8">
-        <v>1</v>
-      </c>
-      <c r="X47" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A48" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8">
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+      <c r="W49" s="8">
+        <v>1</v>
+      </c>
+      <c r="X49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A50" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O48" s="8">
-        <v>0</v>
-      </c>
-      <c r="P48" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>0</v>
-      </c>
-      <c r="R48" s="8">
-        <v>0</v>
-      </c>
-      <c r="S48" s="8">
-        <v>1</v>
-      </c>
-      <c r="T48" s="8">
-        <v>0</v>
-      </c>
-      <c r="U48" s="8">
-        <v>0</v>
-      </c>
-      <c r="V48" s="8">
-        <v>0</v>
-      </c>
-      <c r="W48" s="8">
-        <v>1</v>
-      </c>
-      <c r="X48" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A49" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O49" s="9">
-        <v>1</v>
-      </c>
-      <c r="P49" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9">
-        <v>0</v>
-      </c>
-      <c r="S49" s="9">
-        <v>1</v>
-      </c>
-      <c r="T49" s="9">
-        <v>1</v>
-      </c>
-      <c r="U49" s="9">
-        <v>0</v>
-      </c>
-      <c r="V49" s="9">
-        <v>0</v>
-      </c>
-      <c r="W49" s="9">
-        <v>1</v>
-      </c>
-      <c r="X49" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O50" s="9">
-        <v>1</v>
-      </c>
-      <c r="P50" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9">
-        <v>0</v>
-      </c>
-      <c r="S50" s="9">
-        <v>1</v>
-      </c>
-      <c r="T50" s="9">
-        <v>1</v>
-      </c>
-      <c r="U50" s="9">
-        <v>0</v>
-      </c>
-      <c r="V50" s="9">
-        <v>0</v>
-      </c>
-      <c r="W50" s="9">
-        <v>1</v>
-      </c>
-      <c r="X50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="9">
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
+        <v>1</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
+      <c r="W50" s="8">
+        <v>1</v>
+      </c>
+      <c r="X50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A51" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>72</v>
@@ -5346,151 +5398,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A52" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O52" s="10">
-        <v>0</v>
-      </c>
-      <c r="P52" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>0</v>
-      </c>
-      <c r="R52" s="10">
-        <v>0</v>
-      </c>
-      <c r="S52" s="10">
-        <v>0</v>
-      </c>
-      <c r="T52" s="10">
-        <v>1</v>
-      </c>
-      <c r="U52" s="10">
-        <v>0</v>
-      </c>
-      <c r="V52" s="10">
-        <v>0</v>
-      </c>
-      <c r="W52" s="13">
-        <v>1</v>
-      </c>
-      <c r="X52" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A53" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="10" t="s">
+    <row r="52" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A52" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O53" s="10">
-        <v>1</v>
-      </c>
-      <c r="P53" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="10">
-        <v>0</v>
-      </c>
-      <c r="R53" s="10">
-        <v>0</v>
-      </c>
-      <c r="S53" s="10">
-        <v>1</v>
-      </c>
-      <c r="T53" s="10">
-        <v>1</v>
-      </c>
-      <c r="U53" s="10">
-        <v>0</v>
-      </c>
-      <c r="V53" s="10">
-        <v>0</v>
-      </c>
-      <c r="W53" s="13">
-        <v>1</v>
-      </c>
-      <c r="X53" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="10">
+      <c r="J52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O52" s="9">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>1</v>
+      </c>
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52" s="9">
+        <v>0</v>
+      </c>
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>1</v>
+      </c>
+      <c r="X52" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" s="9">
+        <v>1</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>1</v>
+      </c>
+      <c r="T53" s="9">
+        <v>1</v>
+      </c>
+      <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>1</v>
+      </c>
+      <c r="X53" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A54" s="10" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="O54" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="10">
         <v>0</v>
@@ -5502,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="10">
         <v>1</v>
@@ -5513,13 +5565,13 @@
       <c r="V54" s="10">
         <v>0</v>
       </c>
-      <c r="W54" s="13">
-        <v>1</v>
-      </c>
-      <c r="X54" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="13">
+      <c r="W54" s="14">
+        <v>1</v>
+      </c>
+      <c r="X54" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="14">
         <v>1</v>
       </c>
       <c r="Z54" s="10">
@@ -5540,22 +5592,22 @@
     </row>
     <row r="55" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A55" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O55" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="10">
         <v>0</v>
@@ -5578,13 +5630,13 @@
       <c r="V55" s="10">
         <v>0</v>
       </c>
-      <c r="W55" s="13">
-        <v>1</v>
-      </c>
-      <c r="X55" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="13">
+      <c r="W55" s="14">
+        <v>1</v>
+      </c>
+      <c r="X55" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="14">
         <v>1</v>
       </c>
       <c r="Z55" s="10">
@@ -5605,19 +5657,22 @@
     </row>
     <row r="56" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A56" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>85</v>
       </c>
+      <c r="J56" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="O56" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="10">
         <v>0</v>
@@ -5640,13 +5695,13 @@
       <c r="V56" s="10">
         <v>0</v>
       </c>
-      <c r="W56" s="13">
-        <v>1</v>
-      </c>
-      <c r="X56" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="13">
+      <c r="W56" s="14">
+        <v>1</v>
+      </c>
+      <c r="X56" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="14">
         <v>1</v>
       </c>
       <c r="Z56" s="10">
@@ -5667,199 +5722,202 @@
     </row>
     <row r="57" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A57" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>0</v>
+      </c>
+      <c r="R57" s="10">
+        <v>0</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1</v>
+      </c>
+      <c r="T57" s="10">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="14">
+        <v>1</v>
+      </c>
+      <c r="X57" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A58" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O57" s="10">
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="10">
-        <v>0</v>
-      </c>
-      <c r="R57" s="10">
-        <v>0</v>
-      </c>
-      <c r="S57" s="10">
-        <v>1</v>
-      </c>
-      <c r="T57" s="10">
-        <v>1</v>
-      </c>
-      <c r="U57" s="10">
-        <v>0</v>
-      </c>
-      <c r="V57" s="10">
-        <v>0</v>
-      </c>
-      <c r="W57" s="13">
-        <v>1</v>
-      </c>
-      <c r="X57" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="O58" s="10">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>0</v>
+      </c>
+      <c r="R58" s="10">
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <v>1</v>
+      </c>
+      <c r="T58" s="10">
+        <v>1</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
+      <c r="W58" s="14">
+        <v>1</v>
+      </c>
+      <c r="X58" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A59" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O58" s="8">
-        <v>0</v>
-      </c>
-      <c r="P58" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="8">
-        <v>0</v>
-      </c>
-      <c r="R58" s="8">
-        <v>0</v>
-      </c>
-      <c r="S58" s="8">
-        <v>1</v>
-      </c>
-      <c r="T58" s="8">
-        <v>0</v>
-      </c>
-      <c r="U58" s="8">
-        <v>0</v>
-      </c>
-      <c r="V58" s="8">
-        <v>0</v>
-      </c>
-      <c r="W58" s="8">
-        <v>1</v>
-      </c>
-      <c r="X58" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A59" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" s="8">
-        <v>0</v>
-      </c>
-      <c r="P59" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="8">
-        <v>0</v>
-      </c>
-      <c r="R59" s="8">
-        <v>0</v>
-      </c>
-      <c r="S59" s="8">
-        <v>1</v>
-      </c>
-      <c r="T59" s="8">
-        <v>0</v>
-      </c>
-      <c r="U59" s="8">
-        <v>0</v>
-      </c>
-      <c r="V59" s="8">
-        <v>0</v>
-      </c>
-      <c r="W59" s="8">
-        <v>1</v>
-      </c>
-      <c r="X59" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="8">
+      <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>0</v>
+      </c>
+      <c r="R59" s="10">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <v>1</v>
+      </c>
+      <c r="T59" s="10">
+        <v>1</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0</v>
+      </c>
+      <c r="W59" s="14">
+        <v>1</v>
+      </c>
+      <c r="X59" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="60" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
       <c r="A60" s="8" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>85</v>
@@ -5913,141 +5971,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
-      <c r="A61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="11" t="s">
+    <row r="61" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="O61" s="11">
-        <v>0</v>
-      </c>
-      <c r="P61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
-        <v>0</v>
-      </c>
-      <c r="R61" s="11">
-        <v>0</v>
-      </c>
-      <c r="S61" s="11">
-        <v>0</v>
-      </c>
-      <c r="T61" s="11">
-        <v>0</v>
-      </c>
-      <c r="U61" s="11">
-        <v>0</v>
-      </c>
-      <c r="V61" s="11">
-        <v>0</v>
-      </c>
-      <c r="W61" s="11">
-        <v>0</v>
-      </c>
-      <c r="X61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" s="11" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
-      <c r="A62" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O62" s="11">
-        <v>0</v>
-      </c>
-      <c r="P62" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="11">
-        <v>0</v>
-      </c>
-      <c r="R62" s="11">
-        <v>0</v>
-      </c>
-      <c r="S62" s="11">
-        <v>1</v>
-      </c>
-      <c r="T62" s="11">
-        <v>0</v>
-      </c>
-      <c r="U62" s="11">
-        <v>0</v>
-      </c>
-      <c r="V62" s="11">
-        <v>0</v>
-      </c>
-      <c r="W62" s="11">
-        <v>0</v>
-      </c>
-      <c r="X62" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="11">
+      <c r="O61" s="8">
+        <v>0</v>
+      </c>
+      <c r="P61" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0</v>
+      </c>
+      <c r="S61" s="8">
+        <v>1</v>
+      </c>
+      <c r="T61" s="8">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
+      <c r="V61" s="8">
+        <v>0</v>
+      </c>
+      <c r="W61" s="8">
+        <v>1</v>
+      </c>
+      <c r="X61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A62" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="S62" s="8">
+        <v>1</v>
+      </c>
+      <c r="T62" s="8">
+        <v>0</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0</v>
+      </c>
+      <c r="W62" s="8">
+        <v>1</v>
+      </c>
+      <c r="X62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="63" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
       <c r="A63" s="11" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>85</v>
       </c>
       <c r="O63" s="11">
@@ -6099,15 +6157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+    <row r="64" s="11" customFormat="1" ht="17.1" customHeight="1" spans="1:30">
       <c r="A64" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>74</v>
@@ -6125,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="11">
         <v>0</v>
@@ -6158,6 +6216,535 @@
         <v>0</v>
       </c>
       <c r="AD64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A65" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O65" s="11">
+        <v>0</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>0</v>
+      </c>
+      <c r="R65" s="11">
+        <v>0</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <v>0</v>
+      </c>
+      <c r="U65" s="11">
+        <v>0</v>
+      </c>
+      <c r="V65" s="11">
+        <v>0</v>
+      </c>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" ht="16.5" customHeight="1" spans="1:30">
+      <c r="A66" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O66" s="11">
+        <v>0</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>0</v>
+      </c>
+      <c r="R66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <v>0</v>
+      </c>
+      <c r="V66" s="11">
+        <v>0</v>
+      </c>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O67" s="8">
+        <v>0</v>
+      </c>
+      <c r="P67" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67" s="8">
+        <v>0</v>
+      </c>
+      <c r="S67" s="8">
+        <v>1</v>
+      </c>
+      <c r="T67" s="8">
+        <v>1</v>
+      </c>
+      <c r="U67" s="8">
+        <v>0</v>
+      </c>
+      <c r="V67" s="8">
+        <v>0</v>
+      </c>
+      <c r="W67" s="8">
+        <v>0</v>
+      </c>
+      <c r="X67" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" s="12" customFormat="1" spans="1:24">
+      <c r="A68" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="12">
+        <v>0</v>
+      </c>
+      <c r="P68" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>0</v>
+      </c>
+      <c r="R68" s="12">
+        <v>0</v>
+      </c>
+      <c r="S68" s="12">
+        <v>1</v>
+      </c>
+      <c r="T68" s="12">
+        <v>1</v>
+      </c>
+      <c r="U68" s="12">
+        <v>0</v>
+      </c>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12">
+        <v>0</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A69" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0</v>
+      </c>
+      <c r="P69" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0</v>
+      </c>
+      <c r="S69" s="8">
+        <v>1</v>
+      </c>
+      <c r="T69" s="8">
+        <v>1</v>
+      </c>
+      <c r="U69" s="8">
+        <v>0</v>
+      </c>
+      <c r="V69" s="8">
+        <v>0</v>
+      </c>
+      <c r="W69" s="8">
+        <v>0</v>
+      </c>
+      <c r="X69" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0</v>
+      </c>
+      <c r="P70" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="S70" s="8">
+        <v>1</v>
+      </c>
+      <c r="T70" s="8">
+        <v>1</v>
+      </c>
+      <c r="U70" s="8">
+        <v>0</v>
+      </c>
+      <c r="V70" s="8">
+        <v>0</v>
+      </c>
+      <c r="W70" s="8">
+        <v>0</v>
+      </c>
+      <c r="X70" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="12" customFormat="1" spans="1:24">
+      <c r="A71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O71" s="12">
+        <v>0</v>
+      </c>
+      <c r="P71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12">
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <v>1</v>
+      </c>
+      <c r="T71" s="12">
+        <v>1</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0</v>
+      </c>
+      <c r="W71" s="12">
+        <v>0</v>
+      </c>
+      <c r="X71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A72" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0</v>
+      </c>
+      <c r="P72" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>0</v>
+      </c>
+      <c r="S72" s="8">
+        <v>1</v>
+      </c>
+      <c r="T72" s="8">
+        <v>1</v>
+      </c>
+      <c r="U72" s="8">
+        <v>0</v>
+      </c>
+      <c r="V72" s="8">
+        <v>0</v>
+      </c>
+      <c r="W72" s="8">
+        <v>0</v>
+      </c>
+      <c r="X72" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="8" customFormat="1" ht="15" customHeight="1" spans="1:30">
+      <c r="A73" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0</v>
+      </c>
+      <c r="P73" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8">
+        <v>1</v>
+      </c>
+      <c r="T73" s="8">
+        <v>1</v>
+      </c>
+      <c r="U73" s="8">
+        <v>0</v>
+      </c>
+      <c r="V73" s="8">
+        <v>0</v>
+      </c>
+      <c r="W73" s="8">
+        <v>0</v>
+      </c>
+      <c r="X73" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="8">
         <v>0</v>
       </c>
     </row>
